--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\CatchDoll\resource\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,13 @@
     <sheet name="物品配置" sheetId="4" r:id="rId3"/>
     <sheet name="夹子配置" sheetId="5" r:id="rId4"/>
     <sheet name="怪兽配置" sheetId="6" r:id="rId5"/>
-    <sheet name="宝箱配置" sheetId="7" r:id="rId6"/>
-    <sheet name="商店配置" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId8"/>
+    <sheet name="关卡配置" sheetId="9" r:id="rId6"/>
+    <sheet name="宝箱配置" sheetId="7" r:id="rId7"/>
+    <sheet name="商店配置" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet1!$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">转盘配置!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -589,20 +595,60 @@
   <si>
     <t>是否热销</t>
   </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,100],[3,100],[5,100],[7,10],[9,100]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,100],[3,100],[5,100],[7,100]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,100],[3,100],[5,100],[7,100]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,100],[3,100],[5,100],[7,100],[2,100],[4,100],[6,100],[8,100]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,100],[2,100],[2,100]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[3,100],[4,100],[5,100]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[6,100],[7,100],[8,100]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[9,100],[10,100],[1,100]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,151 +663,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,13 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,19 +711,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,164 +739,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -981,255 +748,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1305,59 +830,93 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1370,16 +929,87 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1401,7 +1031,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1443,7 +1073,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1485,7 +1115,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1761,21 +1391,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="31.75" style="2" customWidth="1"/>
@@ -1927,18 +1556,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1954,7 +1582,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +1599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1991,7 +1619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2011,7 +1639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2031,7 +1659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2051,7 +1679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2068,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2085,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2102,7 +1730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2122,7 +1750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2142,7 +1770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2162,7 +1790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2182,7 +1810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2199,7 +1827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2216,7 +1844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="7:12">
+    <row r="15" spans="1:12">
       <c r="G15" s="20" t="s">
         <v>42</v>
       </c>
@@ -2236,7 +1864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="7:12">
+    <row r="16" spans="1:12">
       <c r="G16" s="20"/>
       <c r="H16" s="21">
         <v>0.4</v>
@@ -2255,27 +1883,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="37.625" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
@@ -2401,7 +2028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" spans="1:5">
+    <row r="8" spans="1:5" s="12" customFormat="1">
       <c r="A8" s="13">
         <v>13</v>
       </c>
@@ -2418,7 +2045,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" spans="1:5">
+    <row r="9" spans="1:5" s="12" customFormat="1">
       <c r="A9" s="13">
         <v>14</v>
       </c>
@@ -2435,7 +2062,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" spans="1:5">
+    <row r="10" spans="1:5" s="12" customFormat="1">
       <c r="A10" s="13">
         <v>15</v>
       </c>
@@ -2503,7 +2130,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" spans="1:5">
+    <row r="14" spans="1:5" s="12" customFormat="1">
       <c r="A14" s="13">
         <v>19</v>
       </c>
@@ -2520,7 +2147,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" spans="1:5">
+    <row r="15" spans="1:5" s="12" customFormat="1">
       <c r="A15" s="13">
         <v>20</v>
       </c>
@@ -2537,7 +2164,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" spans="1:5">
+    <row r="16" spans="1:5" s="12" customFormat="1">
       <c r="A16" s="13">
         <v>21</v>
       </c>
@@ -2691,30 +2318,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A17 A19:A20 A22:A24">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A21">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="61.25" customWidth="1"/>
@@ -2806,24 +2432,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
@@ -2850,7 +2475,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" ht="69" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="69" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2867,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="66" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="66" customHeight="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2884,7 +2509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="78.95" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="78.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2902,25 +2527,167 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="100.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="26">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="26">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="26">
+        <v>1</v>
+      </c>
+      <c r="B6" s="28">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="26">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="26">
+        <v>1</v>
+      </c>
+      <c r="B8" s="28">
+        <v>7</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="26">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="26">
+        <v>1</v>
+      </c>
+      <c r="B10" s="28">
+        <v>9</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="26">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="141.25" customWidth="1"/>
@@ -3068,54 +2835,53 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" spans="1:7">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="1:7">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="1:7">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="1:7">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="4:5">
+    <row r="11" spans="1:7">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:7">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:7">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="1:7">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -3173,26 +2939,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <sortState ref="A1">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\CatchDoll\resource\table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="5"/>
+    <workbookView windowWidth="21000" windowHeight="11505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>id</t>
   </si>
@@ -485,22 +480,85 @@
     <t>移动速度</t>
   </si>
   <si>
-    <t>小太阳</t>
-  </si>
-  <si>
-    <t>[ ["monster1","monster_1"]]</t>
-  </si>
-  <si>
-    <t>西瓜怪</t>
-  </si>
-  <si>
-    <t>[ ["monster2","monster_2"]]</t>
-  </si>
-  <si>
-    <t>喷火龙</t>
-  </si>
-  <si>
-    <t>[ ["monster3","monster_3"]]</t>
+    <t>大眼黑</t>
+  </si>
+  <si>
+    <t>duyanhei</t>
+  </si>
+  <si>
+    <t>大眼红</t>
+  </si>
+  <si>
+    <t>duyanhong</t>
+  </si>
+  <si>
+    <t>大眼蓝</t>
+  </si>
+  <si>
+    <t>duyanlan</t>
+  </si>
+  <si>
+    <t>大眼绿</t>
+  </si>
+  <si>
+    <t>duyanlv</t>
+  </si>
+  <si>
+    <t>小猪黑</t>
+  </si>
+  <si>
+    <t>xiaozhuhei</t>
+  </si>
+  <si>
+    <t>小猪红</t>
+  </si>
+  <si>
+    <t>xiaozhuhong</t>
+  </si>
+  <si>
+    <t>xiaozhuhuang</t>
+  </si>
+  <si>
+    <t>小猪蓝</t>
+  </si>
+  <si>
+    <t>xiaozhulan</t>
+  </si>
+  <si>
+    <t>小猪绿</t>
+  </si>
+  <si>
+    <t>xiaozhulv</t>
+  </si>
+  <si>
+    <t>章节</t>
+  </si>
+  <si>
+    <t>关卡</t>
+  </si>
+  <si>
+    <t>怪物组</t>
+  </si>
+  <si>
+    <t>[[1,100],[2,100],[2,100]]</t>
+  </si>
+  <si>
+    <t>[[3,100],[4,100],[5,100]]</t>
+  </si>
+  <si>
+    <t>[[6,100],[7,100],[8,100]]</t>
+  </si>
+  <si>
+    <t>[[9,100],[10,100],[1,100]]</t>
+  </si>
+  <si>
+    <t>[[1,100],[3,100],[5,100],[7,100]]</t>
+  </si>
+  <si>
+    <t>[[1,100],[3,100],[5,100],[7,10],[9,100]]</t>
+  </si>
+  <si>
+    <t>[[1,100],[3,100],[5,100],[7,100],[2,100],[4,100],[6,100],[8,100]]</t>
   </si>
   <si>
     <r>
@@ -595,60 +653,27 @@
   <si>
     <t>是否热销</t>
   </si>
-  <si>
-    <t>关卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,100],[3,100],[5,100],[7,10],[9,100]]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,100],[3,100],[5,100],[7,100]]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,100],[3,100],[5,100],[7,100]]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,100],[3,100],[5,100],[7,100],[2,100],[4,100],[6,100],[8,100]]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,100],[2,100],[2,100]]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[3,100],[4,100],[5,100]]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[6,100],[7,100],[8,100]]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[9,100],[10,100],[1,100]]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,28 +688,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,13 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,19 +859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,8 +887,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -748,13 +1082,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,6 +1349,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -785,10 +1373,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -830,93 +1424,59 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -929,214 +1489,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="200025"/>
-          <a:ext cx="923925" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4095750" y="1114425"/>
-          <a:ext cx="952500" cy="885825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>993775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4181475" y="2085975"/>
-          <a:ext cx="952500" cy="793750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1391,20 +1749,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="31.75" style="2" customWidth="1"/>
@@ -1431,7 +1790,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1451,7 +1810,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="29">
         <v>0.03</v>
       </c>
     </row>
@@ -1471,7 +1830,7 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="29">
         <v>0.25</v>
       </c>
     </row>
@@ -1491,7 +1850,7 @@
       <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -1502,7 +1861,7 @@
       <c r="B5" s="2">
         <v>-180</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1511,7 +1870,7 @@
       <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -1531,7 +1890,7 @@
       <c r="E6" s="2">
         <v>12</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="29">
         <v>0.1</v>
       </c>
     </row>
@@ -1551,22 +1910,23 @@
       <c r="E7" s="2">
         <v>15</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="29">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1582,7 +1942,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1615,11 +1975,11 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1635,11 +1995,11 @@
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1655,11 +2015,11 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1675,11 +2035,11 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1696,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1713,7 +2073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1730,7 +2090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1746,11 +2106,11 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1766,11 +2126,11 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1786,11 +2146,11 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1806,11 +2166,11 @@
       <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1827,7 +2187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1844,65 +2204,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="G15" s="20" t="s">
+    <row r="15" spans="7:12">
+      <c r="G15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="G16" s="20"/>
-      <c r="H16" s="21">
+    <row r="16" spans="7:12">
+      <c r="G16" s="26"/>
+      <c r="H16" s="27">
         <v>0.4</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="27">
         <v>0.3</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="27">
         <v>0.15</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="27">
         <v>0.1</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="27">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="37.625" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
@@ -1927,13 +2288,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="12">
         <v>-1</v>
       </c>
       <c r="D2" s="2">
@@ -1944,13 +2305,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="12">
         <v>-1</v>
       </c>
       <c r="D3" s="2">
@@ -1961,13 +2322,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="12">
         <v>-1</v>
       </c>
       <c r="D4" s="2">
@@ -2028,14 +2389,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1">
-      <c r="A8" s="13">
+    <row r="8" s="18" customFormat="1" spans="1:5">
+      <c r="A8" s="19">
         <v>13</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="2">
@@ -2045,14 +2406,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1">
-      <c r="A9" s="13">
+    <row r="9" s="18" customFormat="1" spans="1:5">
+      <c r="A9" s="19">
         <v>14</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="2">
@@ -2062,14 +2423,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1">
-      <c r="A10" s="13">
+    <row r="10" s="18" customFormat="1" spans="1:5">
+      <c r="A10" s="19">
         <v>15</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="2">
@@ -2130,14 +2491,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="12" customFormat="1">
-      <c r="A14" s="13">
+    <row r="14" s="18" customFormat="1" spans="1:5">
+      <c r="A14" s="19">
         <v>19</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="2">
@@ -2147,14 +2508,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="12" customFormat="1">
-      <c r="A15" s="13">
+    <row r="15" s="18" customFormat="1" spans="1:5">
+      <c r="A15" s="19">
         <v>20</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="2">
@@ -2164,14 +2525,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="12" customFormat="1">
-      <c r="A16" s="13">
+    <row r="16" s="18" customFormat="1" spans="1:5">
+      <c r="A16" s="19">
         <v>21</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="2">
@@ -2182,165 +2543,166 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="15">
+      <c r="A17" s="21">
         <v>1001</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="21">
         <v>-1</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="15">
+      <c r="A18" s="21">
         <v>1002</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="21">
         <v>-1</v>
       </c>
       <c r="D18" s="2">
         <v>-1</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="15">
+      <c r="A19" s="21">
         <v>1003</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="21">
         <v>-1</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="15">
+      <c r="A20" s="21">
         <v>1004</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="21">
         <v>-1</v>
       </c>
       <c r="D20" s="2">
         <v>-1</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15">
+      <c r="A21" s="21">
         <v>1005</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="21">
         <v>-1</v>
       </c>
       <c r="D21" s="2">
         <v>-1</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="17">
+      <c r="A22" s="23">
         <v>5001</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="23">
         <v>-1</v>
       </c>
       <c r="D22" s="2">
         <v>-1</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="23">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="17">
+      <c r="A23" s="23">
         <v>5002</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="23">
         <v>-1</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="23">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="17">
+      <c r="A24" s="23">
         <v>5003</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="23">
         <v>-1</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="23">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A17 A19:A20 A22:A24">
-    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A21">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="61.25" customWidth="1"/>
@@ -2364,13 +2726,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="2">
@@ -2381,13 +2743,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="16" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="2">
@@ -2398,13 +2760,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="16" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="2">
@@ -2415,13 +2777,13 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="16" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="2">
@@ -2432,27 +2794,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="19" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2465,7 +2828,7 @@
       <c r="C1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2475,14 +2838,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69" customHeight="1">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" ht="69" customHeight="1" spans="1:6">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E2" s="2">
@@ -2492,202 +2855,305 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="66" customHeight="1">
-      <c r="A3" s="8">
+    <row r="3" ht="66" customHeight="1" spans="1:6">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>100</v>
       </c>
       <c r="E3" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="78.95" customHeight="1">
+    <row r="4" ht="78.95" customHeight="1" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A4">
+  <conditionalFormatting sqref="A1:A10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="100.75" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="25"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="26">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="26">
+      <c r="A1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="26">
-        <v>1</v>
-      </c>
-      <c r="B4" s="28">
+      <c r="C3" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="26">
+      <c r="C4" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="28">
+      <c r="C5" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="26">
+      <c r="C6" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="26">
-        <v>1</v>
-      </c>
-      <c r="B8" s="28">
-        <v>7</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="26">
+    <row r="9" spans="1:3">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="26">
-        <v>1</v>
-      </c>
-      <c r="B10" s="28">
+      <c r="C9" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
         <v>9</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="26">
+      <c r="C10" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
         <v>1</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>124</v>
+      <c r="C11" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="141.25" customWidth="1"/>
@@ -2699,13 +3165,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
@@ -2714,7 +3180,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>49</v>
@@ -2728,7 +3194,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2">
         <v>1001</v>
@@ -2740,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2751,7 +3217,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2">
         <v>1002</v>
@@ -2763,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2774,7 +3240,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2">
         <v>1003</v>
@@ -2786,7 +3252,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2797,7 +3263,7 @@
         <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2">
         <v>1004</v>
@@ -2809,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2820,7 +3286,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2">
         <v>1005</v>
@@ -2832,66 +3298,67 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="4:5">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="4:5">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="4:5">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="4:5">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="4:5">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="4:5">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="4:5">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2939,23 +3406,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <sortState ref="A1">
     <sortCondition ref="A1"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\CatchDoll\resource\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11505" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -657,16 +662,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,151 +689,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,13 +705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,19 +723,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="5" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,194 +751,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1082,251 +760,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1415,68 +851,90 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1489,9 +947,80 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1749,21 +1278,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="31.75" style="2" customWidth="1"/>
@@ -1915,18 +1443,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1942,7 +1469,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1979,7 +1506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1999,7 +1526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2019,7 +1546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2039,7 +1566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2056,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2073,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2090,7 +1617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2110,7 +1637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2130,7 +1657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2150,7 +1677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2170,7 +1697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2187,7 +1714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2204,7 +1731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="7:12">
+    <row r="15" spans="1:12">
       <c r="G15" s="26" t="s">
         <v>42</v>
       </c>
@@ -2224,7 +1751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="7:12">
+    <row r="16" spans="1:12">
       <c r="G16" s="26"/>
       <c r="H16" s="27">
         <v>0.4</v>
@@ -2243,27 +1770,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="37.625" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
@@ -2389,7 +1915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:5">
+    <row r="8" spans="1:5" s="18" customFormat="1">
       <c r="A8" s="19">
         <v>13</v>
       </c>
@@ -2406,7 +1932,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" spans="1:5">
+    <row r="9" spans="1:5" s="18" customFormat="1">
       <c r="A9" s="19">
         <v>14</v>
       </c>
@@ -2423,7 +1949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" s="18" customFormat="1" spans="1:5">
+    <row r="10" spans="1:5" s="18" customFormat="1">
       <c r="A10" s="19">
         <v>15</v>
       </c>
@@ -2491,7 +2017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" s="18" customFormat="1" spans="1:5">
+    <row r="14" spans="1:5" s="18" customFormat="1">
       <c r="A14" s="19">
         <v>19</v>
       </c>
@@ -2508,7 +2034,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" s="18" customFormat="1" spans="1:5">
+    <row r="15" spans="1:5" s="18" customFormat="1">
       <c r="A15" s="19">
         <v>20</v>
       </c>
@@ -2525,7 +2051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" s="18" customFormat="1" spans="1:5">
+    <row r="16" spans="1:5" s="18" customFormat="1">
       <c r="A16" s="19">
         <v>21</v>
       </c>
@@ -2679,30 +2205,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A17 A19:A20 A22:A24">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A21">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="61.25" customWidth="1"/>
@@ -2794,24 +2319,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
@@ -2838,7 +2362,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" ht="69" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="69" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2855,7 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="66" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="66" customHeight="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2872,7 +2396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="78.95" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="78.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2893,7 +2417,7 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2910,7 +2434,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -2927,7 +2451,7 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2944,7 +2468,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2961,7 +2485,7 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -2978,7 +2502,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -2992,24 +2516,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="100.75" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
@@ -3027,7 +2550,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3038,7 +2561,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3049,7 +2572,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3060,7 +2583,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -3071,7 +2594,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -3082,7 +2605,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -3093,7 +2616,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -3104,7 +2627,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -3115,7 +2638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -3126,7 +2649,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -3138,22 +2661,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="141.25" customWidth="1"/>
@@ -3301,54 +2823,53 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" spans="1:7">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="1:7">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="1:7">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="1:7">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="4:5">
+    <row r="11" spans="1:7">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:7">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:7">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="1:7">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -3406,26 +2927,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <sortState ref="A1">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -474,9 +474,6 @@
   </si>
   <si>
     <t>渲染源</t>
-  </si>
-  <si>
-    <t>展示</t>
   </si>
   <si>
     <t>生命值</t>
@@ -658,14 +655,49 @@
   <si>
     <t>是否热销</t>
   </si>
+  <si>
+    <t>展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[-3,-4,46,]]</t>
+  </si>
+  <si>
+    <t>[[-2,-4,47,]]</t>
+  </si>
+  <si>
+    <t>[[-1,-3,44,]]</t>
+  </si>
+  <si>
+    <t>[[-2,-2,48,]]</t>
+  </si>
+  <si>
+    <t>[[1,-2,46,]]</t>
+  </si>
+  <si>
+    <t>[[2,1,48,]]</t>
+  </si>
+  <si>
+    <t>[[4,-1,46,]]</t>
+  </si>
+  <si>
+    <t>[[5,1,44,]]</t>
+  </si>
+  <si>
+    <t>[[4,1,45,]]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -851,10 +883,10 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2329,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2340,9 +2372,10 @@
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
     <col min="4" max="4" width="19" style="10" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2353,24 +2386,27 @@
         <v>93</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="69" customHeight="1">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="69" customHeight="1">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>50</v>
@@ -2378,142 +2414,172 @@
       <c r="F2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="66" customHeight="1">
+      <c r="G2" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="66" customHeight="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>50</v>
       </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="78.95" customHeight="1">
+      <c r="F3" s="15">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="78.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E4" s="2">
         <v>50</v>
       </c>
-      <c r="F4" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="15">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
       </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="15">
+        <v>2</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>106</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
       </c>
       <c r="F6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="E7" s="2">
         <v>50</v>
       </c>
-      <c r="F7" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="15">
+        <v>4</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2">
         <v>50</v>
       </c>
-      <c r="F8" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="15">
+        <v>4</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="E9" s="2">
         <v>50</v>
       </c>
-      <c r="F9" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="15">
+        <v>4</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="E10" s="2">
         <v>50</v>
       </c>
-      <c r="F10" s="2">
-        <v>18</v>
-      </c>
+      <c r="F10" s="15">
+        <v>4</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2521,6 +2587,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2540,13 +2607,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="D1" s="8"/>
     </row>
@@ -2558,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2569,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2580,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2591,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2602,7 +2669,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2613,7 +2680,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2624,7 +2691,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2635,7 +2702,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2646,7 +2713,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2657,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2687,13 +2754,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
@@ -2702,7 +2769,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>49</v>
@@ -2716,7 +2783,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2">
         <v>1001</v>
@@ -2728,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2739,7 +2806,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2">
         <v>1002</v>
@@ -2751,7 +2818,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2762,7 +2829,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2">
         <v>1003</v>
@@ -2774,7 +2841,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2785,7 +2852,7 @@
         <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2">
         <v>1004</v>
@@ -2797,7 +2864,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2808,7 +2875,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2">
         <v>1005</v>
@@ -2820,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2876,10 +2943,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="179">
   <si>
     <t>id</t>
   </si>
@@ -690,6 +690,143 @@
   <si>
     <t>[[4,1,45,]]</t>
   </si>
+  <si>
+    <t>机器人A红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>jiqiyijiehon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiqiyijiehuang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人A黄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人A蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人A绿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人A紫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>jiqiyijiela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiqiyijielv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiqiyijiezi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人B红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人B黄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人B蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人B绿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人B紫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>erjihong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>erjihuang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>erjilan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>erjilv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>erjizi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[4,1,46,]]</t>
+  </si>
+  <si>
+    <t>[[4,1,47,]]</t>
+  </si>
+  <si>
+    <t>[[4,1,48,]]</t>
+  </si>
+  <si>
+    <t>[[4,1,49,]]</t>
+  </si>
+  <si>
+    <t>[[4,1,50,]]</t>
+  </si>
+  <si>
+    <t>[[4,1,51,]]</t>
+  </si>
+  <si>
+    <t>[[4,1,52,]]</t>
+  </si>
+  <si>
+    <t>[[4,1,53,]]</t>
+  </si>
+  <si>
+    <t>[[4,1,54,]]</t>
+  </si>
 </sst>
 </file>
 
@@ -699,7 +836,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +859,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -844,9 +989,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,11 +1034,74 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1350,7 +1555,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1370,7 +1575,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <v>0.03</v>
       </c>
     </row>
@@ -1390,7 +1595,7 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>0.25</v>
       </c>
     </row>
@@ -1410,7 +1615,7 @@
       <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <v>0.15</v>
       </c>
     </row>
@@ -1421,7 +1626,7 @@
       <c r="B5" s="2">
         <v>-180</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1430,7 +1635,7 @@
       <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>0.15</v>
       </c>
     </row>
@@ -1450,7 +1655,7 @@
       <c r="E6" s="2">
         <v>12</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>0.1</v>
       </c>
     </row>
@@ -1470,7 +1675,7 @@
       <c r="E7" s="2">
         <v>15</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>0.05</v>
       </c>
     </row>
@@ -1534,7 +1739,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1554,7 +1759,7 @@
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1574,7 +1779,7 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1594,7 +1799,7 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1665,7 +1870,7 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1685,7 +1890,7 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1705,7 +1910,7 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1725,7 +1930,7 @@
       <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1764,40 +1969,40 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="G16" s="26"/>
-      <c r="H16" s="27">
+      <c r="G16" s="25"/>
+      <c r="H16" s="26">
         <v>0.4</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <v>0.3</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="26">
         <v>0.15</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="26">
         <v>0.1</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="26">
         <v>0.05</v>
       </c>
     </row>
@@ -1947,14 +2152,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1">
-      <c r="A8" s="19">
+    <row r="8" spans="1:5" s="17" customFormat="1">
+      <c r="A8" s="18">
         <v>13</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="2">
@@ -1964,14 +2169,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1">
-      <c r="A9" s="19">
+    <row r="9" spans="1:5" s="17" customFormat="1">
+      <c r="A9" s="18">
         <v>14</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="2">
@@ -1981,14 +2186,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="18" customFormat="1">
-      <c r="A10" s="19">
+    <row r="10" spans="1:5" s="17" customFormat="1">
+      <c r="A10" s="18">
         <v>15</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="2">
@@ -2049,14 +2254,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1">
-      <c r="A14" s="19">
+    <row r="14" spans="1:5" s="17" customFormat="1">
+      <c r="A14" s="18">
         <v>19</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="2">
@@ -2066,14 +2271,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1">
-      <c r="A15" s="19">
+    <row r="15" spans="1:5" s="17" customFormat="1">
+      <c r="A15" s="18">
         <v>20</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="2">
@@ -2083,14 +2288,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1">
-      <c r="A16" s="19">
+    <row r="16" spans="1:5" s="17" customFormat="1">
+      <c r="A16" s="18">
         <v>21</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="2">
@@ -2101,138 +2306,138 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>1001</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>-1</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>1002</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>-1</v>
       </c>
       <c r="D18" s="2">
         <v>-1</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>1003</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>-1</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>1004</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>-1</v>
       </c>
       <c r="D20" s="2">
         <v>-1</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>1005</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>-1</v>
       </c>
       <c r="D21" s="2">
         <v>-1</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>5001</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>-1</v>
       </c>
       <c r="D22" s="2">
         <v>-1</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>5002</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>-1</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>5003</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>-1</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>-1</v>
       </c>
     </row>
@@ -2283,13 +2488,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="2">
@@ -2300,13 +2505,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="2">
@@ -2317,13 +2522,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="2">
@@ -2334,13 +2539,13 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="2">
@@ -2361,10 +2566,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2375,7 +2580,7 @@
     <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2388,17 +2593,20 @@
       <c r="D1" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="69" customHeight="1">
+      <c r="H1" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="69" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2408,17 +2616,21 @@
       <c r="C2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" s="11"/>
+      <c r="E2" s="14">
         <v>50</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="14">
         <v>2</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="66" customHeight="1">
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="66" customHeight="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2428,162 +2640,423 @@
       <c r="C3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" s="11"/>
+      <c r="E3" s="14">
         <v>50</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>2</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="78.95" customHeight="1">
-      <c r="A4" s="2">
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="78.95" customHeight="1">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D4" s="11"/>
+      <c r="E4" s="14">
         <v>50</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="2">
+      <c r="D5" s="11"/>
+      <c r="E5" s="14">
         <v>50</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>2</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D6" s="11"/>
+      <c r="E6" s="14">
         <v>50</v>
       </c>
-      <c r="F6" s="2">
-        <v>4</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="D7" s="11"/>
+      <c r="E7" s="14">
         <v>50</v>
       </c>
-      <c r="F7" s="15">
-        <v>4</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D8" s="11"/>
+      <c r="E8" s="14">
         <v>50</v>
       </c>
-      <c r="F8" s="15">
-        <v>4</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D9" s="11"/>
+      <c r="E9" s="14">
         <v>50</v>
       </c>
-      <c r="F9" s="15">
-        <v>4</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D10" s="11"/>
+      <c r="E10" s="14">
         <v>50</v>
       </c>
-      <c r="F10" s="15">
-        <v>4</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="G11" s="15"/>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14">
+        <v>50</v>
+      </c>
+      <c r="F11" s="14">
+        <v>3</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14">
+        <v>50</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14">
+        <v>50</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14">
+        <v>50</v>
+      </c>
+      <c r="F14" s="14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14">
+        <v>50</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14">
+        <v>50</v>
+      </c>
+      <c r="F16" s="14">
+        <v>3</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14">
+        <v>50</v>
+      </c>
+      <c r="F17" s="14">
+        <v>3</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14">
+        <v>50</v>
+      </c>
+      <c r="F18" s="14">
+        <v>3</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14">
+        <v>50</v>
+      </c>
+      <c r="F19" s="14">
+        <v>3</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A10">
+  <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -801,31 +801,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[[4,1,46,]]</t>
-  </si>
-  <si>
-    <t>[[4,1,47,]]</t>
-  </si>
-  <si>
-    <t>[[4,1,48,]]</t>
-  </si>
-  <si>
-    <t>[[4,1,49,]]</t>
-  </si>
-  <si>
-    <t>[[4,1,50,]]</t>
-  </si>
-  <si>
-    <t>[[4,1,51,]]</t>
-  </si>
-  <si>
-    <t>[[4,1,52,]]</t>
-  </si>
-  <si>
-    <t>[[4,1,53,]]</t>
-  </si>
-  <si>
-    <t>[[4,1,54,]]</t>
+    <t>[[0,-47,44,]]</t>
+  </si>
+  <si>
+    <t>[[0,-49,42,]]</t>
+  </si>
+  <si>
+    <t>[[-2,-49,48,]]</t>
+  </si>
+  <si>
+    <t>[[0,-47,50,]]</t>
+  </si>
+  <si>
+    <t>[[0,-51,49,]]</t>
+  </si>
+  <si>
+    <t>[[-2,-6,53,]]</t>
+  </si>
+  <si>
+    <t>[[-3,-6,55,]]</t>
+  </si>
+  <si>
+    <t>[[-2,-5,54,]]</t>
+  </si>
+  <si>
+    <t>[[0,-7,57,]]</t>
   </si>
 </sst>
 </file>
@@ -1041,67 +1041,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2569,7 +2509,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\CatchDoll\resource\table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11505" activeTab="4"/>
+    <workbookView windowWidth="20520" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -20,10 +15,11 @@
     <sheet name="关卡配置" sheetId="9" r:id="rId6"/>
     <sheet name="宝箱配置" sheetId="7" r:id="rId7"/>
     <sheet name="商店配置" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId9"/>
+    <sheet name="场景道具配置" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sheet1!$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">转盘配置!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>id</t>
   </si>
@@ -446,24 +442,39 @@
     <t>伤害</t>
   </si>
   <si>
+    <t>动作前摇</t>
+  </si>
+  <si>
+    <t>伤血持续时间</t>
+  </si>
+  <si>
     <t>白板1</t>
   </si>
   <si>
     <t>[["normal","BlueClipLevel1","action",10]]</t>
   </si>
   <si>
+    <t>[3,7,12]</t>
+  </si>
+  <si>
     <t>绿色2</t>
   </si>
   <si>
     <t>[["normal","BlueClipLevel2","action",10]]</t>
   </si>
   <si>
+    <t>[2,4,9]</t>
+  </si>
+  <si>
     <t>蓝色3</t>
   </si>
   <si>
     <t>[["normal","BlueClipLevel3","action",10]]</t>
   </si>
   <si>
+    <t>[1,2,5]</t>
+  </si>
+  <si>
     <t>紫色4</t>
   </si>
   <si>
@@ -476,61 +487,222 @@
     <t>渲染源</t>
   </si>
   <si>
+    <t>展示</t>
+  </si>
+  <si>
     <t>生命值</t>
   </si>
   <si>
     <t>移动速度</t>
   </si>
   <si>
+    <t>碰撞体</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>大眼黑</t>
   </si>
   <si>
     <t>duyanhei</t>
   </si>
   <si>
+    <t>[[-3,-4,46,]]</t>
+  </si>
+  <si>
     <t>大眼红</t>
   </si>
   <si>
     <t>duyanhong</t>
   </si>
   <si>
+    <t>[[-2,-4,47,]]</t>
+  </si>
+  <si>
     <t>大眼蓝</t>
   </si>
   <si>
     <t>duyanlan</t>
   </si>
   <si>
+    <t>[[-1,-3,44,]]</t>
+  </si>
+  <si>
     <t>大眼绿</t>
   </si>
   <si>
     <t>duyanlv</t>
   </si>
   <si>
+    <t>[[-2,-2,48,]]</t>
+  </si>
+  <si>
     <t>小猪黑</t>
   </si>
   <si>
     <t>xiaozhuhei</t>
   </si>
   <si>
+    <t>[[1,-2,46,]]</t>
+  </si>
+  <si>
     <t>小猪红</t>
   </si>
   <si>
     <t>xiaozhuhong</t>
   </si>
   <si>
+    <t>[[2,1,48,]]</t>
+  </si>
+  <si>
     <t>xiaozhuhuang</t>
   </si>
   <si>
+    <t>[[4,-1,46,]]</t>
+  </si>
+  <si>
     <t>小猪蓝</t>
   </si>
   <si>
     <t>xiaozhulan</t>
   </si>
   <si>
+    <t>[[5,1,44,]]</t>
+  </si>
+  <si>
     <t>小猪绿</t>
   </si>
   <si>
     <t>xiaozhulv</t>
+  </si>
+  <si>
+    <t>[[4,1,45,]]</t>
+  </si>
+  <si>
+    <t>机器人A红</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jiqiyijiehon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <t>[[0,-47,44,]]</t>
+  </si>
+  <si>
+    <t>机器人A黄</t>
+  </si>
+  <si>
+    <t>jiqiyijiehuang</t>
+  </si>
+  <si>
+    <t>[[0,-49,42,]]</t>
+  </si>
+  <si>
+    <t>机器人A蓝</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jiqiyijiela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>[[-2,-49,48,]]</t>
+  </si>
+  <si>
+    <t>机器人A绿</t>
+  </si>
+  <si>
+    <t>jiqiyijielv</t>
+  </si>
+  <si>
+    <t>[[0,-47,50,]]</t>
+  </si>
+  <si>
+    <t>机器人A紫</t>
+  </si>
+  <si>
+    <t>jiqiyijiezi</t>
+  </si>
+  <si>
+    <t>[[0,-51,49,]]</t>
+  </si>
+  <si>
+    <t>机器人B红</t>
+  </si>
+  <si>
+    <t>erjihong</t>
+  </si>
+  <si>
+    <t>[[-2,-6,53,]]</t>
+  </si>
+  <si>
+    <t>机器人B黄</t>
+  </si>
+  <si>
+    <t>erjihuang</t>
+  </si>
+  <si>
+    <t>[[-3,-6,55,]]</t>
+  </si>
+  <si>
+    <t>机器人B蓝</t>
+  </si>
+  <si>
+    <t>erjilan</t>
+  </si>
+  <si>
+    <t>[[-2,-5,54,]]</t>
+  </si>
+  <si>
+    <t>机器人B绿</t>
+  </si>
+  <si>
+    <t>erjilv</t>
+  </si>
+  <si>
+    <t>[[0,-7,57,]]</t>
+  </si>
+  <si>
+    <t>机器人B紫</t>
+  </si>
+  <si>
+    <t>erjizi</t>
   </si>
   <si>
     <t>章节</t>
@@ -655,188 +827,20 @@
   <si>
     <t>是否热销</t>
   </si>
-  <si>
-    <t>展示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[-3,-4,46,]]</t>
-  </si>
-  <si>
-    <t>[[-2,-4,47,]]</t>
-  </si>
-  <si>
-    <t>[[-1,-3,44,]]</t>
-  </si>
-  <si>
-    <t>[[-2,-2,48,]]</t>
-  </si>
-  <si>
-    <t>[[1,-2,46,]]</t>
-  </si>
-  <si>
-    <t>[[2,1,48,]]</t>
-  </si>
-  <si>
-    <t>[[4,-1,46,]]</t>
-  </si>
-  <si>
-    <t>[[5,1,44,]]</t>
-  </si>
-  <si>
-    <t>[[4,1,45,]]</t>
-  </si>
-  <si>
-    <t>机器人A红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>jiqiyijiehon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>g</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiqiyijiehuang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人A黄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人A蓝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人A绿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人A紫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>jiqiyijiela</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiqiyijielv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiqiyijiezi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人B红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人B黄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人B蓝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人B绿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人B紫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>erjihong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>erjihuang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>erjilan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>erjilv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>erjizi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,-47,44,]]</t>
-  </si>
-  <si>
-    <t>[[0,-49,42,]]</t>
-  </si>
-  <si>
-    <t>[[-2,-49,48,]]</t>
-  </si>
-  <si>
-    <t>[[0,-47,50,]]</t>
-  </si>
-  <si>
-    <t>[[0,-51,49,]]</t>
-  </si>
-  <si>
-    <t>[[-2,-6,53,]]</t>
-  </si>
-  <si>
-    <t>[[-3,-6,55,]]</t>
-  </si>
-  <si>
-    <t>[[-2,-5,54,]]</t>
-  </si>
-  <si>
-    <t>[[0,-7,57,]]</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,22 +862,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,13 +1015,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,19 +1033,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39991454817346722"/>
+        <fgColor theme="5" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79992065187536243"/>
+        <fgColor theme="6" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,8 +1061,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -937,13 +1256,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,24 +1523,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,84 +1595,59 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1124,80 +1660,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1455,20 +1920,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="31.75" style="2" customWidth="1"/>
@@ -1620,17 +2086,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <sortState ref="A1">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1646,7 +2132,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +2149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1683,7 +2169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1703,7 +2189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1723,7 +2209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1743,7 +2229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1760,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1777,7 +2263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1794,7 +2280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1814,7 +2300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1834,7 +2320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1854,7 +2340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1874,7 +2360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1891,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1908,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="7:12">
       <c r="G15" s="25" t="s">
         <v>42</v>
       </c>
@@ -1928,7 +2414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="7:12">
       <c r="G16" s="25"/>
       <c r="H16" s="26">
         <v>0.4</v>
@@ -1947,26 +2433,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="37.625" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
@@ -2092,7 +2579,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="17" customFormat="1">
+    <row r="8" s="17" customFormat="1" spans="1:5">
       <c r="A8" s="18">
         <v>13</v>
       </c>
@@ -2109,7 +2596,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="17" customFormat="1">
+    <row r="9" s="17" customFormat="1" spans="1:5">
       <c r="A9" s="18">
         <v>14</v>
       </c>
@@ -2126,7 +2613,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="17" customFormat="1">
+    <row r="10" s="17" customFormat="1" spans="1:5">
       <c r="A10" s="18">
         <v>15</v>
       </c>
@@ -2194,7 +2681,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="17" customFormat="1">
+    <row r="14" s="17" customFormat="1" spans="1:5">
       <c r="A14" s="18">
         <v>19</v>
       </c>
@@ -2211,7 +2698,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="17" customFormat="1">
+    <row r="15" s="17" customFormat="1" spans="1:5">
       <c r="A15" s="18">
         <v>20</v>
       </c>
@@ -2228,7 +2715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="17" customFormat="1">
+    <row r="16" s="17" customFormat="1" spans="1:5">
       <c r="A16" s="18">
         <v>21</v>
       </c>
@@ -2382,35 +2869,38 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A17 A19:A20 A22:A24">
-    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A21">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="61.25" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2426,16 +2916,22 @@
       <c r="E1" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2">
         <v>50</v>
@@ -2443,16 +2939,22 @@
       <c r="E2" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2">
         <v>60</v>
@@ -2460,16 +2962,22 @@
       <c r="E3" s="2">
         <v>1001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2">
         <v>70</v>
@@ -2477,16 +2985,22 @@
       <c r="E4" s="2">
         <v>1002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2">
         <v>80</v>
@@ -2494,29 +3008,36 @@
       <c r="E5" s="2">
         <v>1003</v>
       </c>
+      <c r="F5" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="19" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19" style="9" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2525,96 +3046,96 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="69" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" ht="69" customHeight="1" spans="1:8">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="14">
+        <v>105</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="2">
         <v>50</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="66" customHeight="1">
+      <c r="G2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="66" customHeight="1" spans="1:8">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="14">
+        <v>108</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="2">
         <v>50</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="78.95" customHeight="1">
-      <c r="A4" s="14">
+      <c r="G3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="78.95" customHeight="1" spans="1:8">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="14">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="2">
         <v>50</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="14">
+      <c r="G4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2622,47 +3143,47 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14">
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="2">
         <v>50</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="14">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="14">
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="2">
         <v>50</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="2">
         <v>2.5</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="G6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2670,47 +3191,47 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14">
+      <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="2">
         <v>50</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="2">
         <v>2.5</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="G7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14">
+      <c r="B8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="2">
         <v>50</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="2">
         <v>2.5</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="G8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2718,301 +3239,302 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14">
+      <c r="B9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="2">
         <v>50</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="2">
         <v>2.5</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="2">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="2">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="2">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="2">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="2">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14">
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="2">
         <v>50</v>
       </c>
-      <c r="F10" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14">
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="2">
         <v>50</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14">
+      <c r="G18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="2">
         <v>50</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="14">
-        <v>50</v>
-      </c>
-      <c r="F13" s="14">
-        <v>3</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14">
-        <v>50</v>
-      </c>
-      <c r="F14" s="14">
-        <v>3</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="14">
-        <v>50</v>
-      </c>
-      <c r="F15" s="14">
-        <v>3</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14">
-        <v>50</v>
-      </c>
-      <c r="F16" s="14">
-        <v>3</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14">
-        <v>50</v>
-      </c>
-      <c r="F17" s="14">
-        <v>3</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14">
-        <v>50</v>
-      </c>
-      <c r="F18" s="14">
-        <v>3</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="H18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="14">
-        <v>18</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14">
-        <v>50</v>
-      </c>
-      <c r="F19" s="14">
-        <v>3</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="14">
-        <v>19</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="100.75" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
@@ -3020,142 +3542,143 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4">
+        <v>159</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="6">
         <v>1</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>122</v>
+      <c r="C11" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="141.25" customWidth="1"/>
@@ -3167,13 +3690,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
@@ -3182,7 +3705,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>49</v>
@@ -3196,7 +3719,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2">
         <v>1001</v>
@@ -3208,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3219,7 +3742,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2">
         <v>1002</v>
@@ -3231,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3242,7 +3765,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D4" s="2">
         <v>1003</v>
@@ -3254,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3265,7 +3788,7 @@
         <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D5" s="2">
         <v>1004</v>
@@ -3277,7 +3800,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3288,7 +3811,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D6" s="2">
         <v>1005</v>
@@ -3300,66 +3823,67 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="4:5">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="4:5">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="4:5">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="4:5">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="4:5">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="4:5">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="4:5">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A1" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3407,23 +3931,79 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <sortState ref="A1">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20520" windowHeight="10425" activeTab="3"/>
+    <workbookView windowWidth="20040" windowHeight="9255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
     <t>[["normal","BlueClipLevel1","action",10]]</t>
   </si>
   <si>
-    <t>[3,7,12]</t>
+    <t>[1,7,12]</t>
   </si>
   <si>
     <t>绿色2</t>
@@ -463,7 +463,7 @@
     <t>[["normal","BlueClipLevel2","action",10]]</t>
   </si>
   <si>
-    <t>[2,4,9]</t>
+    <t>[1,4,9]</t>
   </si>
   <si>
     <t>蓝色3</t>
@@ -833,21 +833,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,20 +852,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,48 +870,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -960,9 +902,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,8 +945,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,13 +978,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,19 +1056,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,31 +1086,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,13 +1104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1128,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,7 +1164,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,37 +1194,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,37 +1212,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,15 +1235,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1292,11 +1264,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,11 +1286,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1339,21 +1335,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1362,10 +1343,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1374,137 +1355,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1538,22 +1519,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1961,7 +1936,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1981,7 +1956,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="26">
         <v>0.03</v>
       </c>
     </row>
@@ -2001,7 +1976,7 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="26">
         <v>0.25</v>
       </c>
     </row>
@@ -2021,7 +1996,7 @@
       <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="26">
         <v>0.15</v>
       </c>
     </row>
@@ -2032,7 +2007,7 @@
       <c r="B5" s="2">
         <v>-180</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2041,7 +2016,7 @@
       <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <v>0.15</v>
       </c>
     </row>
@@ -2061,7 +2036,7 @@
       <c r="E6" s="2">
         <v>12</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="26">
         <v>0.1</v>
       </c>
     </row>
@@ -2081,7 +2056,7 @@
       <c r="E7" s="2">
         <v>15</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="26">
         <v>0.05</v>
       </c>
     </row>
@@ -2165,7 +2140,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2185,7 +2160,7 @@
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2205,7 +2180,7 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2225,7 +2200,7 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2296,7 +2271,7 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="22" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2316,7 +2291,7 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2336,7 +2311,7 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2356,7 +2331,7 @@
       <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2395,40 +2370,40 @@
       </c>
     </row>
     <row r="15" spans="7:12">
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="7:12">
-      <c r="G16" s="25"/>
-      <c r="H16" s="26">
+      <c r="G16" s="23"/>
+      <c r="H16" s="24">
         <v>0.4</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="24">
         <v>0.3</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="24">
         <v>0.15</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="24">
         <v>0.1</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="24">
         <v>0.05</v>
       </c>
     </row>
@@ -2478,13 +2453,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>-1</v>
       </c>
       <c r="D2" s="2">
@@ -2495,13 +2470,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>-1</v>
       </c>
       <c r="D3" s="2">
@@ -2512,13 +2487,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>-1</v>
       </c>
       <c r="D4" s="2">
@@ -2579,14 +2554,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" spans="1:5">
-      <c r="A8" s="18">
+    <row r="8" s="15" customFormat="1" spans="1:5">
+      <c r="A8" s="16">
         <v>13</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="2">
@@ -2596,14 +2571,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" spans="1:5">
-      <c r="A9" s="18">
+    <row r="9" s="15" customFormat="1" spans="1:5">
+      <c r="A9" s="16">
         <v>14</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="2">
@@ -2613,14 +2588,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" spans="1:5">
-      <c r="A10" s="18">
+    <row r="10" s="15" customFormat="1" spans="1:5">
+      <c r="A10" s="16">
         <v>15</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="2">
@@ -2681,14 +2656,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" spans="1:5">
-      <c r="A14" s="18">
+    <row r="14" s="15" customFormat="1" spans="1:5">
+      <c r="A14" s="16">
         <v>19</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="2">
@@ -2698,14 +2673,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" spans="1:5">
-      <c r="A15" s="18">
+    <row r="15" s="15" customFormat="1" spans="1:5">
+      <c r="A15" s="16">
         <v>20</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="2">
@@ -2715,14 +2690,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" spans="1:5">
-      <c r="A16" s="18">
+    <row r="16" s="15" customFormat="1" spans="1:5">
+      <c r="A16" s="16">
         <v>21</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="2">
@@ -2733,138 +2708,138 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="20">
+      <c r="A17" s="18">
         <v>1001</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>-1</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="20">
+      <c r="A18" s="18">
         <v>1002</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="18">
         <v>-1</v>
       </c>
       <c r="D18" s="2">
         <v>-1</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="20">
+      <c r="A19" s="18">
         <v>1003</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <v>-1</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="20">
+      <c r="A20" s="18">
         <v>1004</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="18">
         <v>-1</v>
       </c>
       <c r="D20" s="2">
         <v>-1</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="20">
+      <c r="A21" s="18">
         <v>1005</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>-1</v>
       </c>
       <c r="D21" s="2">
         <v>-1</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="22">
+      <c r="A22" s="20">
         <v>5001</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="20">
         <v>-1</v>
       </c>
       <c r="D22" s="2">
         <v>-1</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="20">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="22">
+      <c r="A23" s="20">
         <v>5002</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>-1</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="20">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="22">
+      <c r="A24" s="20">
         <v>5003</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="20">
         <v>-1</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="20">
         <v>-1</v>
       </c>
     </row>
@@ -2889,7 +2864,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -2916,21 +2891,21 @@
       <c r="E1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="2">
@@ -2939,21 +2914,21 @@
       <c r="E2" s="2">
         <v>1000</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="2">
         <v>0.4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="2">
@@ -2962,21 +2937,21 @@
       <c r="E3" s="2">
         <v>1001</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="2">
         <v>0.2</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="2">
@@ -2985,21 +2960,21 @@
       <c r="E4" s="2">
         <v>1002</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="2">
         <v>0.1</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="2">
@@ -3008,10 +2983,10 @@
       <c r="E5" s="2">
         <v>1003</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="2">
         <v>0.1</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3063,18 +3038,18 @@
       <c r="G1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" ht="69" customHeight="1" spans="1:8">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D2" s="10"/>
@@ -3092,13 +3067,13 @@
       </c>
     </row>
     <row r="3" ht="66" customHeight="1" spans="1:8">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D3" s="10"/>
@@ -3119,7 +3094,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3140,7 +3115,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3188,7 +3163,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3236,7 +3211,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3287,7 +3262,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -3311,7 +3286,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3335,7 +3310,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -3359,7 +3334,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -3383,7 +3358,7 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -3407,7 +3382,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -3431,7 +3406,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3455,7 +3430,7 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -3479,7 +3454,7 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3503,7 +3478,7 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C20" s="3" t="s">

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\CatchDoll\resource\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20040" windowHeight="9255" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -12,14 +17,12 @@
     <sheet name="物品配置" sheetId="4" r:id="rId3"/>
     <sheet name="夹子配置" sheetId="5" r:id="rId4"/>
     <sheet name="怪兽配置" sheetId="6" r:id="rId5"/>
-    <sheet name="关卡配置" sheetId="9" r:id="rId6"/>
-    <sheet name="宝箱配置" sheetId="7" r:id="rId7"/>
-    <sheet name="商店配置" sheetId="8" r:id="rId8"/>
-    <sheet name="场景道具配置" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId10"/>
+    <sheet name="商店配置" sheetId="8" r:id="rId6"/>
+    <sheet name="场景道具配置" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">转盘配置!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="171">
   <si>
     <t>id</t>
   </si>
@@ -705,142 +708,112 @@
     <t>erjizi</t>
   </si>
   <si>
-    <t>章节</t>
-  </si>
-  <si>
-    <t>关卡</t>
-  </si>
-  <si>
-    <t>怪物组</t>
-  </si>
-  <si>
-    <t>[[1,100],[2,100],[2,100]]</t>
-  </si>
-  <si>
-    <t>[[3,100],[4,100],[5,100]]</t>
-  </si>
-  <si>
-    <t>[[6,100],[7,100],[8,100]]</t>
-  </si>
-  <si>
-    <t>[[9,100],[10,100],[1,100]]</t>
-  </si>
-  <si>
-    <t>[[1,100],[3,100],[5,100],[7,100]]</t>
-  </si>
-  <si>
-    <t>[[1,100],[3,100],[5,100],[7,10],[9,100]]</t>
-  </si>
-  <si>
-    <t>[[1,100],[3,100],[5,100],[7,100],[2,100],[4,100],[6,100],[8,100]]</t>
-  </si>
-  <si>
+    <t>物品ID</t>
+  </si>
+  <si>
+    <t>是否热销</t>
+  </si>
+  <si>
+    <t>问号箱子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"battleProp_1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i</t>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[["burst</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>d</t>
+      <t>","</t>
     </r>
-  </si>
-  <si>
-    <t>完成任务条件</t>
-  </si>
-  <si>
-    <t>宝箱等级</t>
-  </si>
-  <si>
-    <t>任意进入宠物场，好友宠物场任意进入一次,抽卡牌一次,在任意宠物场得到碎片x1,报复仇家一次</t>
-  </si>
-  <si>
-    <t>["treasureBox1_off","treasureBox1_on"]</t>
-  </si>
-  <si>
-    <t>在任意宠物场得到碎片x2,好友宠物场得到碎片x2,抽卡牌三次,报复仇家二次,合成精英娃娃</t>
-  </si>
-  <si>
-    <t>["treasureBox2_off","treasureBox2_on"]</t>
-  </si>
-  <si>
-    <t>在任意宠物场得到碎片x3,好友宠物场得到碎片x3,抽卡牌五次,报复仇家五次,合成稀有娃娃</t>
-  </si>
-  <si>
-    <t>["treasureBox3_off","treasureBox3_on"]</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>battleProp_1burst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>合成史诗娃娃,获得史诗娃娃碎片,抽卡牌10</t>
+      <t>","action",10]]</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,报复仇家10次</t>
-    </r>
-  </si>
-  <si>
-    <t>["treasureBox4_off","treasureBox4_on"]</t>
-  </si>
-  <si>
-    <t>合成神话娃娃,获得神话娃娃碎片,抽卡牌15次,报复仇家15次</t>
-  </si>
-  <si>
-    <t>["treasureBox5_off","treasureBox5_on"]</t>
-  </si>
-  <si>
-    <t>物品ID</t>
-  </si>
-  <si>
-    <t>是否热销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleProp_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片剪辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,151 +828,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,13 +865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,19 +883,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399914548173467"/>
+        <fgColor theme="5" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
+        <fgColor theme="6" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,182 +911,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1237,251 +920,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1502,15 +943,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1570,59 +1002,90 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1635,9 +1098,80 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1895,21 +1429,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="31.75" style="2" customWidth="1"/>
@@ -1936,7 +1469,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1956,7 +1489,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="23">
         <v>0.03</v>
       </c>
     </row>
@@ -1976,7 +1509,7 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="23">
         <v>0.25</v>
       </c>
     </row>
@@ -1996,7 +1529,7 @@
       <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="23">
         <v>0.15</v>
       </c>
     </row>
@@ -2007,7 +1540,7 @@
       <c r="B5" s="2">
         <v>-180</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2016,7 +1549,7 @@
       <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="23">
         <v>0.15</v>
       </c>
     </row>
@@ -2036,7 +1569,7 @@
       <c r="E6" s="2">
         <v>12</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>0.1</v>
       </c>
     </row>
@@ -2056,42 +1589,22 @@
       <c r="E7" s="2">
         <v>15</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <sortState ref="A1">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2107,7 +1620,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +1637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2140,11 +1653,11 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2160,11 +1673,11 @@
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2180,11 +1693,11 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2200,11 +1713,11 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2221,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2238,7 +1751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2255,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2271,11 +1784,11 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2291,11 +1804,11 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2311,11 +1824,11 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2331,11 +1844,11 @@
       <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2352,7 +1865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2369,66 +1882,65 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="7:12">
-      <c r="G15" s="23" t="s">
+    <row r="15" spans="1:12">
+      <c r="G15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="7:12">
-      <c r="G16" s="23"/>
-      <c r="H16" s="24">
+    <row r="16" spans="1:12">
+      <c r="G16" s="20"/>
+      <c r="H16" s="21">
         <v>0.4</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="21">
         <v>0.3</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="21">
         <v>0.15</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="21">
         <v>0.1</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="21">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="37.625" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
@@ -2453,13 +1965,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>-1</v>
       </c>
       <c r="D2" s="2">
@@ -2470,13 +1982,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>-1</v>
       </c>
       <c r="D3" s="2">
@@ -2487,13 +1999,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>-1</v>
       </c>
       <c r="D4" s="2">
@@ -2554,14 +2066,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="1" spans="1:5">
-      <c r="A8" s="16">
+    <row r="8" spans="1:5" s="12" customFormat="1">
+      <c r="A8" s="13">
         <v>13</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="2">
@@ -2571,14 +2083,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" s="15" customFormat="1" spans="1:5">
-      <c r="A9" s="16">
+    <row r="9" spans="1:5" s="12" customFormat="1">
+      <c r="A9" s="13">
         <v>14</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="2">
@@ -2588,14 +2100,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" s="15" customFormat="1" spans="1:5">
-      <c r="A10" s="16">
+    <row r="10" spans="1:5" s="12" customFormat="1">
+      <c r="A10" s="13">
         <v>15</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="2">
@@ -2656,14 +2168,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" s="15" customFormat="1" spans="1:5">
-      <c r="A14" s="16">
+    <row r="14" spans="1:5" s="12" customFormat="1">
+      <c r="A14" s="13">
         <v>19</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="2">
@@ -2673,14 +2185,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" s="15" customFormat="1" spans="1:5">
-      <c r="A15" s="16">
+    <row r="15" spans="1:5" s="12" customFormat="1">
+      <c r="A15" s="13">
         <v>20</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="2">
@@ -2690,14 +2202,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" s="15" customFormat="1" spans="1:5">
-      <c r="A16" s="16">
+    <row r="16" spans="1:5" s="12" customFormat="1">
+      <c r="A16" s="13">
         <v>21</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="2">
@@ -2708,166 +2220,165 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <v>1001</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="15">
         <v>-1</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="18">
+      <c r="A18" s="15">
         <v>1002</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="15">
         <v>-1</v>
       </c>
       <c r="D18" s="2">
         <v>-1</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="18">
+      <c r="A19" s="15">
         <v>1003</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="15">
         <v>-1</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="18">
+      <c r="A20" s="15">
         <v>1004</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="15">
         <v>-1</v>
       </c>
       <c r="D20" s="2">
         <v>-1</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="18">
+      <c r="A21" s="15">
         <v>1005</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="15">
         <v>-1</v>
       </c>
       <c r="D21" s="2">
         <v>-1</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="20">
+      <c r="A22" s="17">
         <v>5001</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="17">
         <v>-1</v>
       </c>
       <c r="D22" s="2">
         <v>-1</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="17">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="20">
+      <c r="A23" s="17">
         <v>5002</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="17">
         <v>-1</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="17">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="20">
+      <c r="A24" s="17">
         <v>5003</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="17">
         <v>-1</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="17">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A17 A19:A20 A22:A24">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A21">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="61.25" customWidth="1"/>
@@ -2899,13 +2410,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="2">
@@ -2922,13 +2433,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="2">
@@ -2945,13 +2456,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="14">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="2">
@@ -2968,13 +2479,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="2">
@@ -2991,28 +2502,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="19" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19" style="6" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3026,7 +2536,7 @@
       <c r="C1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3042,17 +2552,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" ht="69" customHeight="1" spans="1:8">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8" ht="69" customHeight="1">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="2">
         <v>50</v>
       </c>
@@ -3066,17 +2576,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="66" customHeight="1" spans="1:8">
-      <c r="A3" s="11">
+    <row r="3" spans="1:8" ht="66" customHeight="1">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="2">
         <v>50</v>
       </c>
@@ -3090,17 +2600,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="78.95" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="78.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="2">
         <v>50</v>
       </c>
@@ -3115,7 +2625,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3124,7 +2634,7 @@
       <c r="C5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2">
         <v>50</v>
       </c>
@@ -3148,7 +2658,7 @@
       <c r="C6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="2">
         <v>50</v>
       </c>
@@ -3163,7 +2673,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3172,7 +2682,7 @@
       <c r="C7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2">
         <v>50</v>
       </c>
@@ -3196,7 +2706,7 @@
       <c r="C8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="2">
         <v>50</v>
       </c>
@@ -3211,7 +2721,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3220,7 +2730,7 @@
       <c r="C9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="2">
         <v>50</v>
       </c>
@@ -3244,7 +2754,7 @@
       <c r="C10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="2">
         <v>50</v>
       </c>
@@ -3268,7 +2778,7 @@
       <c r="C11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="2">
         <v>50</v>
       </c>
@@ -3292,7 +2802,7 @@
       <c r="C12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="2">
         <v>50</v>
       </c>
@@ -3316,7 +2826,7 @@
       <c r="C13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="2">
         <v>50</v>
       </c>
@@ -3340,7 +2850,7 @@
       <c r="C14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="2">
         <v>50</v>
       </c>
@@ -3364,7 +2874,7 @@
       <c r="C15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="2">
         <v>50</v>
       </c>
@@ -3388,7 +2898,7 @@
       <c r="C16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="2">
         <v>50</v>
       </c>
@@ -3412,7 +2922,7 @@
       <c r="C17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="2">
         <v>50</v>
       </c>
@@ -3436,7 +2946,7 @@
       <c r="C18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="2">
         <v>50</v>
       </c>
@@ -3460,7 +2970,7 @@
       <c r="C19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="2">
         <v>50</v>
       </c>
@@ -3484,501 +2994,183 @@
       <c r="C20" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="3" max="3" width="100.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>162</v>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>163</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>164</v>
+      <c r="B4" s="2">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6">
-        <v>1</v>
+      <c r="A5" s="2">
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>168</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="141.25" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
-    <col min="6" max="6" width="35.25" customWidth="1"/>
-    <col min="7" max="7" width="43.125" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="4" max="4" width="48.5" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="E1" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>161</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1002</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1003</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1004</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1005</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="4:5">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="4:5">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="4:5">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="4:5">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="4:5">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <sortState ref="A1">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -3085,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>161</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>162</v>

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -16,9 +16,9 @@
     <sheet name="任务配置" sheetId="3" r:id="rId2"/>
     <sheet name="物品配置" sheetId="4" r:id="rId3"/>
     <sheet name="夹子配置" sheetId="5" r:id="rId4"/>
-    <sheet name="怪兽配置" sheetId="6" r:id="rId5"/>
-    <sheet name="商店配置" sheetId="8" r:id="rId6"/>
-    <sheet name="场景道具配置" sheetId="10" r:id="rId7"/>
+    <sheet name="商店配置" sheetId="8" r:id="rId5"/>
+    <sheet name="场景道具配置" sheetId="10" r:id="rId6"/>
+    <sheet name="怪兽配置" sheetId="6" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="174">
   <si>
     <t>id</t>
   </si>
@@ -803,6 +803,15 @@
   <si>
     <t>影片剪辑</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,-1,55,]]</t>
+  </si>
+  <si>
+    <t>[[0,-24,58,]]</t>
+  </si>
+  <si>
+    <t>[[0,-9,53,]]</t>
   </si>
 </sst>
 </file>
@@ -2512,10 +2521,159 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="4" max="4" width="48.5" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="F4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2569,7 +2727,7 @@
       <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>106</v>
       </c>
       <c r="H2" s="2">
@@ -2593,7 +2751,7 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>109</v>
       </c>
       <c r="H3" s="2">
@@ -2617,7 +2775,7 @@
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>112</v>
       </c>
       <c r="H4" s="2">
@@ -2641,7 +2799,7 @@
       <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>115</v>
       </c>
       <c r="H5" s="2">
@@ -2665,7 +2823,7 @@
       <c r="F6" s="2">
         <v>2.5</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="2">
@@ -2689,7 +2847,7 @@
       <c r="F7" s="2">
         <v>2.5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>121</v>
       </c>
       <c r="H7" s="2">
@@ -2713,7 +2871,7 @@
       <c r="F8" s="2">
         <v>2.5</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>123</v>
       </c>
       <c r="H8" s="2">
@@ -2737,7 +2895,7 @@
       <c r="F9" s="2">
         <v>2.5</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>126</v>
       </c>
       <c r="H9" s="2">
@@ -2761,7 +2919,7 @@
       <c r="F10" s="2">
         <v>2.5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>129</v>
       </c>
       <c r="H10" s="2">
@@ -2785,7 +2943,7 @@
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>132</v>
       </c>
       <c r="H11" s="2">
@@ -2809,7 +2967,7 @@
       <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>135</v>
       </c>
       <c r="H12" s="2">
@@ -2833,7 +2991,7 @@
       <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>138</v>
       </c>
       <c r="H13" s="2">
@@ -2857,7 +3015,7 @@
       <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>141</v>
       </c>
       <c r="H14" s="2">
@@ -2881,7 +3039,7 @@
       <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>144</v>
       </c>
       <c r="H15" s="2">
@@ -2905,7 +3063,7 @@
       <c r="F16" s="2">
         <v>3</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>147</v>
       </c>
       <c r="H16" s="2">
@@ -2929,7 +3087,7 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>150</v>
       </c>
       <c r="H17" s="2">
@@ -2953,7 +3111,7 @@
       <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>153</v>
       </c>
       <c r="H18" s="2">
@@ -2977,7 +3135,7 @@
       <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>156</v>
       </c>
       <c r="H19" s="2">
@@ -2995,10 +3153,18 @@
         <v>158</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="E20" s="2">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3007,155 +3173,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="3" width="49.625" customWidth="1"/>
-    <col min="4" max="4" width="48.5" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="E3" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="F4" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -723,31 +723,6 @@
   </si>
   <si>
     <t>龙骨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"battleProp_1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -812,6 +787,21 @@
   </si>
   <si>
     <t>[[0,-9,53,]]</t>
+  </si>
+  <si>
+    <r>
+      <t>[["idle","battleProp_1"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2594,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2611,19 +2601,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>163</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2634,13 +2624,13 @@
         <v>161</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>165</v>
-      </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2652,10 +2642,10 @@
       </c>
       <c r="C3" s="2"/>
       <c r="E3" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2672,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -3160,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -715,15 +715,15 @@
   </si>
   <si>
     <t>问号箱子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>闪电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>龙骨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -757,33 +757,27 @@
       </rPr>
       <t>","action",10]]</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>battleProp_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>碰撞体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>影片剪辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,-1,55,]]</t>
-  </si>
-  <si>
-    <t>[[0,-24,58,]]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[[0,-9,53,]]</t>
@@ -801,7 +795,13 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,27,24,]]</t>
+  </si>
+  <si>
+    <t>[[1,19,25,]]</t>
   </si>
 </sst>
 </file>
@@ -812,11 +812,19 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -854,8 +862,144 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,8 +1054,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -919,13 +1236,246 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,10 +1506,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1001,18 +1551,63 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1593,7 +2188,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
@@ -1920,7 +2515,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
@@ -2355,7 +2950,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
     <cfRule type="duplicateValues" dxfId="4" priority="15"/>
   </conditionalFormatting>
@@ -2501,7 +3096,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:A5">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
@@ -2575,7 +3170,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -2584,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2624,13 +3219,13 @@
         <v>161</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F2" t="s">
-        <v>170</v>
+      <c r="F2" s="28" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2644,15 +3239,15 @@
       <c r="E3" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F3" t="s">
-        <v>171</v>
+      <c r="F3" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="F4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2662,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2811,7 +3406,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="2">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="s">
         <v>118</v>
@@ -2835,7 +3430,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="2">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="s">
         <v>121</v>
@@ -2859,7 +3454,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="2">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="s">
         <v>123</v>
@@ -2883,7 +3478,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="2">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="s">
         <v>126</v>
@@ -2907,7 +3502,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="2">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="s">
         <v>129</v>
@@ -2931,7 +3526,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G11" t="s">
         <v>132</v>
@@ -2955,7 +3550,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G12" t="s">
         <v>135</v>
@@ -2979,7 +3574,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G13" t="s">
         <v>138</v>
@@ -3003,7 +3598,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G14" t="s">
         <v>141</v>
@@ -3027,7 +3622,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G15" t="s">
         <v>144</v>
@@ -3051,7 +3646,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G16" t="s">
         <v>147</v>
@@ -3075,7 +3670,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G17" t="s">
         <v>150</v>
@@ -3099,7 +3694,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G18" t="s">
         <v>153</v>
@@ -3123,7 +3718,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G19" t="s">
         <v>156</v>
@@ -3147,22 +3742,22 @@
         <v>50</v>
       </c>
       <c r="F20" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3177,7 +3772,7 @@
   <sortState ref="A1">
     <sortCondition ref="A1"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -457,25 +457,16 @@
     <t>[["normal","BlueClipLevel1","action",10]]</t>
   </si>
   <si>
-    <t>[1,7,12]</t>
-  </si>
-  <si>
     <t>绿色2</t>
   </si>
   <si>
     <t>[["normal","BlueClipLevel2","action",10]]</t>
   </si>
   <si>
-    <t>[1,4,9]</t>
-  </si>
-  <si>
     <t>蓝色3</t>
   </si>
   <si>
     <t>[["normal","BlueClipLevel3","action",10]]</t>
-  </si>
-  <si>
-    <t>[1,2,5]</t>
   </si>
   <si>
     <t>紫色4</t>
@@ -803,6 +794,30 @@
   <si>
     <t>[[1,19,25,]]</t>
   </si>
+  <si>
+    <t>[等级1,等级2，等级3]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,3,5]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（对应等级怪物的时间）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.9,2,4]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.8,1,3]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.7,0.9,2]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -812,7 +827,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,6 +1013,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -1475,7 +1498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1562,6 +1585,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2966,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2977,10 +3006,11 @@
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="61.25" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3002,8 +3032,11 @@
       <c r="G1" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="22.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3022,19 +3055,22 @@
       <c r="F2" s="2">
         <v>0.4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="D3" s="2">
         <v>60</v>
@@ -3043,21 +3079,21 @@
         <v>1001</v>
       </c>
       <c r="F3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2">
         <v>70</v>
@@ -3066,21 +3102,21 @@
         <v>1002</v>
       </c>
       <c r="F4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2">
         <v>80</v>
@@ -3089,10 +3125,10 @@
         <v>1003</v>
       </c>
       <c r="F5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>0.35</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3119,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3179,7 +3215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3196,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E1" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>163</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3216,16 +3252,16 @@
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>164</v>
-      </c>
       <c r="F2" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3233,14 +3269,14 @@
         <v>1002</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2"/>
       <c r="E3" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3258,7 +3294,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3274,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="69" customHeight="1">
@@ -3300,20 +3336,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="2">
         <v>50</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -3324,20 +3360,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="2">
         <v>50</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -3348,20 +3384,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="2">
         <v>50</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -3372,20 +3408,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="2">
         <v>50</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -3396,20 +3432,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="2">
         <v>50</v>
       </c>
       <c r="F6" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -3420,20 +3456,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="2">
         <v>50</v>
       </c>
       <c r="F7" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -3444,20 +3480,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="2">
         <v>50</v>
       </c>
       <c r="F8" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -3468,20 +3504,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="2">
         <v>50</v>
       </c>
       <c r="F9" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -3492,20 +3528,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="2">
         <v>50</v>
       </c>
       <c r="F10" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -3516,20 +3552,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="2">
         <v>50</v>
       </c>
       <c r="F11" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -3540,20 +3576,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="2">
         <v>50</v>
       </c>
       <c r="F12" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -3564,20 +3600,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="2">
         <v>50</v>
       </c>
       <c r="F13" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -3588,20 +3624,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="2">
         <v>50</v>
       </c>
       <c r="F14" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -3612,20 +3648,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="2">
         <v>50</v>
       </c>
       <c r="F15" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -3636,20 +3672,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="2">
         <v>50</v>
       </c>
       <c r="F16" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -3660,20 +3696,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="2">
         <v>50</v>
       </c>
       <c r="F17" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -3684,20 +3720,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="2">
         <v>50</v>
       </c>
       <c r="F18" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -3708,20 +3744,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="2">
         <v>50</v>
       </c>
       <c r="F19" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -3732,20 +3768,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="2">
         <v>50</v>
       </c>
       <c r="F20" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -2997,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3293,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3346,7 +3346,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="s">
         <v>103</v>
@@ -3370,7 +3370,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="s">
         <v>106</v>
@@ -3394,7 +3394,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="s">
         <v>109</v>
@@ -3418,7 +3418,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="s">
         <v>112</v>
@@ -3442,7 +3442,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="s">
         <v>115</v>
@@ -3466,7 +3466,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="s">
         <v>118</v>
@@ -3490,7 +3490,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="s">
         <v>120</v>
@@ -3514,7 +3514,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="s">
         <v>123</v>
@@ -3538,7 +3538,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="s">
         <v>126</v>
@@ -3562,7 +3562,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>129</v>
@@ -3586,7 +3586,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>132</v>
@@ -3610,7 +3610,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
         <v>135</v>
@@ -3634,7 +3634,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
         <v>138</v>
@@ -3658,7 +3658,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>141</v>
@@ -3682,7 +3682,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
         <v>144</v>
@@ -3706,7 +3706,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
         <v>147</v>
@@ -3730,7 +3730,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
         <v>150</v>
@@ -3754,7 +3754,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
         <v>153</v>
@@ -3778,7 +3778,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
         <v>167</v>

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="192">
   <si>
     <t>id</t>
   </si>
@@ -706,15 +706,11 @@
   </si>
   <si>
     <t>问号箱子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>龙骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -748,27 +744,23 @@
       </rPr>
       <t>","action",10]]</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleProp_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>碰撞体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>影片剪辑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[[0,-9,53,]]</t>
@@ -786,7 +778,7 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[[0,27,24,]]</t>
@@ -796,27 +788,128 @@
   </si>
   <si>
     <t>[等级1,等级2，等级3]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>[1,3,5]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>备注（对应等级怪物的时间）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>[0.9,2,4]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>[0.8,1,3]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>[0.7,0.9,2]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹陷阱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇红</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇绿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhiwu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Skill-hong","loop-hong"]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Skill-lv","loop-lv"]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleProp_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骨动画列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>["loop"]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级碰撞体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[-55,-5,44,],[37,-5,47,]]</t>
+  </si>
+  <si>
+    <t>[[-1,-3,114,]]</t>
+  </si>
+  <si>
+    <t>[[1,-7,113,]]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0,15,15],[0,-30,15]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>["start","loop"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -827,11 +920,27 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1371,134 +1480,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1529,10 +1638,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1574,22 +1683,28 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2217,7 +2332,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
@@ -2544,7 +2659,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
@@ -2979,7 +3094,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
     <cfRule type="duplicateValues" dxfId="4" priority="15"/>
   </conditionalFormatting>
@@ -3033,7 +3148,7 @@
         <v>85</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5">
@@ -3055,11 +3170,11 @@
       <c r="F2" s="2">
         <v>0.4</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>171</v>
+      <c r="G2" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5">
@@ -3081,8 +3196,8 @@
       <c r="F3" s="2">
         <v>0.4</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>174</v>
+      <c r="G3" s="28" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5">
@@ -3104,8 +3219,8 @@
       <c r="F4" s="2">
         <v>0.35</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>175</v>
+      <c r="G4" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5">
@@ -3127,12 +3242,12 @@
       <c r="F5" s="2">
         <v>0.35</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>176</v>
+      <c r="G5" s="28" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A5">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
@@ -3206,48 +3321,56 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="49.625" customWidth="1"/>
     <col min="4" max="4" width="48.5" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>166</v>
-      </c>
       <c r="E1" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>184</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -3255,35 +3378,96 @@
         <v>158</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>160</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2"/>
       <c r="E3" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="F4" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3293,7 +3477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3781,14 +3965,14 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -3808,7 +3992,7 @@
   <sortState ref="A1">
     <sortCondition ref="A1"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="192">
   <si>
     <t>id</t>
   </si>
@@ -3330,7 +3330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3477,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3530,7 +3530,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="2">
-        <v>1.8</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
         <v>103</v>
@@ -3554,7 +3554,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="2">
-        <v>1.8</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
         <v>106</v>
@@ -3578,7 +3578,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="2">
-        <v>1.8</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
         <v>109</v>
@@ -3602,7 +3602,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="2">
-        <v>1.8</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
         <v>112</v>
@@ -3626,7 +3626,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="2">
-        <v>1.9</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
         <v>115</v>
@@ -3650,7 +3650,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="2">
-        <v>1.9</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
         <v>118</v>
@@ -3674,7 +3674,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="2">
-        <v>1.9</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
         <v>120</v>
@@ -3698,7 +3698,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="2">
-        <v>1.9</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
         <v>123</v>
@@ -3722,7 +3722,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="2">
-        <v>1.9</v>
+        <v>190</v>
       </c>
       <c r="G10" t="s">
         <v>126</v>
@@ -3746,7 +3746,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="G11" t="s">
         <v>129</v>
@@ -3770,7 +3770,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="G12" t="s">
         <v>132</v>
@@ -3794,7 +3794,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="G13" t="s">
         <v>135</v>
@@ -3818,7 +3818,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="G14" t="s">
         <v>138</v>
@@ -3842,7 +3842,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="G15" t="s">
         <v>141</v>
@@ -3866,7 +3866,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
         <v>144</v>
@@ -3890,7 +3890,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
         <v>147</v>
@@ -3914,7 +3914,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
         <v>150</v>
@@ -3938,7 +3938,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
         <v>153</v>
@@ -3962,7 +3962,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
         <v>165</v>

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -781,9 +781,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>[[0,27,24,]]</t>
-  </si>
-  <si>
     <t>[[1,19,25,]]</t>
   </si>
   <si>
@@ -911,6 +908,10 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>[[0,14,55,]]</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -920,7 +921,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,6 +1128,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1704,7 +1712,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3148,7 +3156,7 @@
         <v>85</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5">
@@ -3171,10 +3179,10 @@
         <v>0.4</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5">
@@ -3197,7 +3205,7 @@
         <v>0.4</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5">
@@ -3220,7 +3228,7 @@
         <v>0.35</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5">
@@ -3243,7 +3251,7 @@
         <v>0.35</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3330,8 +3338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3361,13 +3369,13 @@
         <v>159</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>161</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3383,8 +3391,8 @@
       <c r="D2" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>167</v>
+      <c r="G2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3392,20 +3400,20 @@
         <v>1002</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2"/>
       <c r="E3" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3413,19 +3421,19 @@
         <v>1003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3433,19 +3441,19 @@
         <v>1004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3453,17 +3461,17 @@
         <v>1005</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3477,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\CatchDoll\resource\table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9255" activeTab="5"/>
+    <workbookView windowWidth="21000" windowHeight="11595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -451,30 +446,212 @@
     <t>伤血持续时间</t>
   </si>
   <si>
+    <t>备注（对应等级怪物的时间）</t>
+  </si>
+  <si>
     <t>白板1</t>
   </si>
   <si>
     <t>[["normal","BlueClipLevel1","action",10]]</t>
   </si>
   <si>
+    <t>[1,3,5]</t>
+  </si>
+  <si>
+    <t>[等级1,等级2，等级3]</t>
+  </si>
+  <si>
     <t>绿色2</t>
   </si>
   <si>
     <t>[["normal","BlueClipLevel2","action",10]]</t>
   </si>
   <si>
+    <t>[0.9,2,4]</t>
+  </si>
+  <si>
     <t>蓝色3</t>
   </si>
   <si>
     <t>[["normal","BlueClipLevel3","action",10]]</t>
   </si>
   <si>
+    <t>[0.8,1,3]</t>
+  </si>
+  <si>
     <t>紫色4</t>
   </si>
   <si>
     <t>[["normal","BlueClipLevel4","action",10]]</t>
   </si>
   <si>
+    <t>[0.7,0.9,2]</t>
+  </si>
+  <si>
+    <t>物品ID</t>
+  </si>
+  <si>
+    <t>是否热销</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>影片剪辑</t>
+  </si>
+  <si>
+    <t>龙骨</t>
+  </si>
+  <si>
+    <t>龙骨动画列表</t>
+  </si>
+  <si>
+    <t>碰撞体</t>
+  </si>
+  <si>
+    <t>二级碰撞体</t>
+  </si>
+  <si>
+    <t>问号箱子</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[["burst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>battleProp_1burst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","action",10]]</t>
+    </r>
+  </si>
+  <si>
+    <t>[[0,67,23,]]</t>
+  </si>
+  <si>
+    <t>麻痹陷阱</t>
+  </si>
+  <si>
+    <t>battleProp_2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["start","loop"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[[1,19,25,]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0,15,15],[0,-30,15]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>zhiwu</t>
+  </si>
+  <si>
+    <t>["loop"]</t>
+  </si>
+  <si>
+    <t>[[-55,-5,44,],[37,-5,47,]]</t>
+  </si>
+  <si>
+    <t>蘑菇红</t>
+  </si>
+  <si>
+    <t>mogu</t>
+  </si>
+  <si>
+    <t>["Skill-hong","loop-hong"]</t>
+  </si>
+  <si>
+    <t>[[-1,-3,114,]]</t>
+  </si>
+  <si>
+    <t>蘑菇绿</t>
+  </si>
+  <si>
+    <t>["Skill-lv","loop-lv"]</t>
+  </si>
+  <si>
+    <t>[[1,-7,113,]]</t>
+  </si>
+  <si>
     <t>怪兽名称</t>
   </si>
   <si>
@@ -488,9 +665,6 @@
   </si>
   <si>
     <t>移动速度</t>
-  </si>
-  <si>
-    <t>碰撞体</t>
   </si>
   <si>
     <t>等级</t>
@@ -699,257 +873,26 @@
     <t>erjizi</t>
   </si>
   <si>
-    <t>物品ID</t>
-  </si>
-  <si>
-    <t>是否热销</t>
-  </si>
-  <si>
-    <t>问号箱子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙骨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[["burst</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>battleProp_1burst</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","action",10]]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>影片剪辑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>[[0,-9,53,]]</t>
-  </si>
-  <si>
-    <r>
-      <t>[["idle","battleProp_1"]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,19,25,]]</t>
-  </si>
-  <si>
-    <t>[等级1,等级2，等级3]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,3,5]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注（对应等级怪物的时间）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.9,2,4]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.8,1,3]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.7,0.9,2]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻痹陷阱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇红</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇绿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhiwu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>["Skill-hong","loop-hong"]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>["Skill-lv","loop-lv"]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleProp_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙骨动画列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>["loop"]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级碰撞体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[-55,-5,44,],[37,-5,47,]]</t>
-  </si>
-  <si>
-    <t>[[-1,-3,114,]]</t>
-  </si>
-  <si>
-    <t>[[1,-7,113,]]</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[0,15,15],[0,-30,15]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>["start","loop"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,14,55,]]</t>
-    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -960,47 +903,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1009,32 +974,21 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1042,24 +996,6 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1068,7 +1004,29 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1076,7 +1034,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1085,78 +1042,16 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1166,19 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39988402966399123"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79989013336588644"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39988402966399123"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,181 +1079,200 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1374,6 +1282,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1391,15 +1314,6 @@
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1437,6 +1351,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1457,167 +1391,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1628,58 +1566,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1691,147 +1641,61 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="41"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="42"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="注释 2" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1844,80 +1708,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2175,182 +1968,184 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="31.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="31.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29">
         <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
         <v>-60</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="29">
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>-120</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="29">
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>-180</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="29">
         <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>-240</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>12</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="29">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>-300</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>15</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="29">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2366,327 +2161,328 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2">
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
         <v>6</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
         <v>6</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>4</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2">
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>6</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="G15" s="20" t="s">
+    <row r="15" spans="7:12">
+      <c r="G15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="G16" s="20"/>
-      <c r="H16" s="21">
+    <row r="16" spans="7:12">
+      <c r="G16" s="26"/>
+      <c r="H16" s="27">
         <v>0.4</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="27">
         <v>0.3</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="27">
         <v>0.15</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="27">
         <v>0.1</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="27">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="37.625" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
@@ -2694,437 +2490,438 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="8">
-        <v>-1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="8">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="8">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>20</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>30</v>
       </c>
-      <c r="E7" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="12" customFormat="1">
-      <c r="A8" s="13">
+      <c r="E7" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" s="18" customFormat="1" spans="1:5">
+      <c r="A8" s="20">
         <v>13</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>13</v>
       </c>
-      <c r="E8" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="12" customFormat="1">
-      <c r="A9" s="13">
+      <c r="E8" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" s="18" customFormat="1" spans="1:5">
+      <c r="A9" s="20">
         <v>14</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>14</v>
       </c>
-      <c r="E9" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="12" customFormat="1">
-      <c r="A10" s="13">
+      <c r="E9" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" s="18" customFormat="1" spans="1:5">
+      <c r="A10" s="20">
         <v>15</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>15</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>16</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>17</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>18</v>
       </c>
-      <c r="E13" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="12" customFormat="1">
-      <c r="A14" s="13">
+      <c r="E13" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" s="18" customFormat="1" spans="1:5">
+      <c r="A14" s="20">
         <v>19</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>19</v>
       </c>
-      <c r="E14" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="12" customFormat="1">
-      <c r="A15" s="13">
+      <c r="E14" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" s="18" customFormat="1" spans="1:5">
+      <c r="A15" s="20">
         <v>20</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>20</v>
       </c>
-      <c r="E15" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="12" customFormat="1">
-      <c r="A16" s="13">
+      <c r="E15" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" s="18" customFormat="1" spans="1:5">
+      <c r="A16" s="20">
         <v>21</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>21</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="15">
+      <c r="A17" s="22">
         <v>1001</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="C17" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="15">
+      <c r="A18" s="22">
         <v>1002</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="C18" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="15">
+      <c r="A19" s="22">
         <v>1003</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="15">
+      <c r="A20" s="22">
         <v>1004</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="C20" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15">
+      <c r="A21" s="22">
         <v>1005</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="C21" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="17">
+      <c r="A22" s="24">
         <v>5001</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="C22" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="24">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="17">
+      <c r="A23" s="24">
         <v>5002</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="C23" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="24">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="17">
+      <c r="A24" s="24">
         <v>5003</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="C24" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="24">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A17 A19:A20 A22:A24">
-    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A21">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="61.25" customWidth="1"/>
@@ -3134,215 +2931,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="22.5">
+      <c r="H1" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" spans="1:8">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="2">
+        <v>88</v>
+      </c>
+      <c r="D2" s="4">
         <v>50</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>1000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>0.4</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="22.5">
+      <c r="G2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" spans="1:7">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="2">
+        <v>92</v>
+      </c>
+      <c r="D3" s="4">
         <v>60</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>0.4</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="22.5">
-      <c r="A4" s="11">
+      <c r="G3" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" spans="1:7">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="2">
+        <v>95</v>
+      </c>
+      <c r="D4" s="4">
         <v>70</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1002</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>0.35</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22.5">
-      <c r="A5" s="11">
+      <c r="G4" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" spans="1:7">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="2">
+        <v>98</v>
+      </c>
+      <c r="D5" s="4">
         <v>80</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1003</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>0.35</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>173</v>
+      <c r="G5" s="15" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="A1" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
+      <c r="B1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>19</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="49.625" customWidth="1"/>
     <col min="4" max="4" width="48.5" customWidth="1"/>
@@ -3353,654 +3152,659 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="B1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" t="s">
-        <v>191</v>
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="E3" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>189</v>
+      <c r="B3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="31"/>
+      <c r="B4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="31"/>
+      <c r="B5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="30"/>
+      <c r="B6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="12"/>
       <c r="H6" t="s">
-        <v>188</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="19" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="69" customHeight="1">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="2">
+      <c r="B1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" ht="69" customHeight="1" spans="1:8">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4">
         <v>50</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="66" customHeight="1">
-      <c r="A3" s="8">
+        <v>135</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="66" customHeight="1" spans="1:8">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="2">
+      <c r="B3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4">
         <v>50</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="78.95" customHeight="1">
-      <c r="A4" s="2">
+        <v>138</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="78.95" customHeight="1" spans="1:8">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="2">
+      <c r="B4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4">
         <v>50</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>180</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="2">
+        <v>141</v>
+      </c>
+      <c r="H4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="2">
+      <c r="B5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
         <v>50</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="2">
+        <v>144</v>
+      </c>
+      <c r="H5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2">
+      <c r="B6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
         <v>50</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="2">
+        <v>147</v>
+      </c>
+      <c r="H6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="2">
+      <c r="B7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
         <v>50</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>190</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="2">
+        <v>150</v>
+      </c>
+      <c r="H7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="2">
+      <c r="B8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
         <v>50</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="2">
+        <v>152</v>
+      </c>
+      <c r="H8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="2">
+      <c r="B9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4">
         <v>50</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="2">
+        <v>155</v>
+      </c>
+      <c r="H9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="2">
+      <c r="B10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4">
         <v>50</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>190</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="2">
+        <v>158</v>
+      </c>
+      <c r="H10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="2">
+      <c r="B11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
         <v>50</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>195</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="2">
+        <v>161</v>
+      </c>
+      <c r="H11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="2">
+      <c r="B12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>195</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="2">
+        <v>164</v>
+      </c>
+      <c r="H12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2">
+      <c r="B13" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4">
         <v>50</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="2">
+        <v>167</v>
+      </c>
+      <c r="H13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="2">
+      <c r="B14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4">
         <v>50</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>195</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="2">
+        <v>170</v>
+      </c>
+      <c r="H14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="2">
+      <c r="B15" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
         <v>50</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>195</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="2">
+        <v>173</v>
+      </c>
+      <c r="H15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2">
+      <c r="B16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4">
         <v>50</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="2">
+        <v>176</v>
+      </c>
+      <c r="H16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="2">
+      <c r="B17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4">
         <v>50</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="2">
+        <v>179</v>
+      </c>
+      <c r="H17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="2">
+      <c r="B18" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4">
         <v>50</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" s="2">
+        <v>182</v>
+      </c>
+      <c r="H18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2">
+      <c r="B19" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
         <v>50</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="2">
+        <v>185</v>
+      </c>
+      <c r="H19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2">
+      <c r="B20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4">
         <v>50</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="2">
+        <v>188</v>
+      </c>
+      <c r="H20" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <sortState ref="A1">
     <sortCondition ref="A1"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\CatchDoll\resource\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="191">
   <si>
     <t>id</t>
   </si>
@@ -875,20 +880,24 @@
   <si>
     <t>[[0,-9,53,]]</t>
   </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["idle","transmitDoor","action",10]]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,120 +919,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1031,22 +926,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1061,13 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,19 +965,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399884029663991"/>
+        <fgColor theme="5" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
+        <fgColor theme="6" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399884029663991"/>
+        <fgColor theme="9" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,180 +989,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1299,251 +1017,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1584,13 +1066,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1632,70 +1114,92 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="注释 2" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="注释 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1708,9 +1212,80 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1968,21 +1543,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="31.75" style="4" customWidth="1"/>
@@ -2134,18 +1708,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2161,7 +1734,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +1751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2198,7 +1771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2218,7 +1791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2238,7 +1811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2258,7 +1831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2275,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2292,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2309,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2329,7 +1902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2349,7 +1922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2369,7 +1942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2389,7 +1962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2406,7 +1979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2423,7 +1996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="7:12">
+    <row r="15" spans="1:12">
       <c r="G15" s="26" t="s">
         <v>42</v>
       </c>
@@ -2443,7 +2016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="7:12">
+    <row r="16" spans="1:12">
       <c r="G16" s="26"/>
       <c r="H16" s="27">
         <v>0.4</v>
@@ -2462,27 +2035,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="37.625" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
@@ -2608,7 +2180,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:5">
+    <row r="8" spans="1:5" s="18" customFormat="1">
       <c r="A8" s="20">
         <v>13</v>
       </c>
@@ -2625,7 +2197,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" spans="1:5">
+    <row r="9" spans="1:5" s="18" customFormat="1">
       <c r="A9" s="20">
         <v>14</v>
       </c>
@@ -2642,7 +2214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" s="18" customFormat="1" spans="1:5">
+    <row r="10" spans="1:5" s="18" customFormat="1">
       <c r="A10" s="20">
         <v>15</v>
       </c>
@@ -2710,7 +2282,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" s="18" customFormat="1" spans="1:5">
+    <row r="14" spans="1:5" s="18" customFormat="1">
       <c r="A14" s="20">
         <v>19</v>
       </c>
@@ -2727,7 +2299,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" s="18" customFormat="1" spans="1:5">
+    <row r="15" spans="1:5" s="18" customFormat="1">
       <c r="A15" s="20">
         <v>20</v>
       </c>
@@ -2744,7 +2316,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" s="18" customFormat="1" spans="1:5">
+    <row r="16" spans="1:5" s="18" customFormat="1">
       <c r="A16" s="20">
         <v>21</v>
       </c>
@@ -2898,30 +2470,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A17 A19:A20 A22:A24">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A21">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="61.25" customWidth="1"/>
@@ -2956,7 +2527,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" ht="22.5" spans="1:8">
+    <row r="2" spans="1:8" ht="22.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2982,7 +2553,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" ht="22.5" spans="1:7">
+    <row r="3" spans="1:8" ht="22.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3005,7 +2576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" ht="22.5" spans="1:7">
+    <row r="4" spans="1:8" ht="22.5">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -3028,7 +2599,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" ht="22.5" spans="1:7">
+    <row r="5" spans="1:8" ht="22.5">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -3052,24 +2623,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C5"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
@@ -3127,21 +2697,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="49.625" customWidth="1"/>
     <col min="4" max="4" width="48.5" customWidth="1"/>
@@ -3177,7 +2746,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>1001</v>
       </c>
@@ -3271,26 +2840,36 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="5:5">
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="E10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
@@ -3324,7 +2903,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" ht="69" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="69" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3348,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="66" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="66" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3372,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="78.95" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="78.95" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3781,30 +3360,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <sortState ref="A1">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11595" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -439,9 +439,6 @@
     <t>夹子名称</t>
   </si>
   <si>
-    <t>影片剪辑源</t>
-  </si>
-  <si>
     <t>伤害</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
     <t>白板1</t>
   </si>
   <si>
-    <t>[["normal","BlueClipLevel1","action",10]]</t>
-  </si>
-  <si>
     <t>[1,3,5]</t>
   </si>
   <si>
@@ -469,25 +463,16 @@
     <t>绿色2</t>
   </si>
   <si>
-    <t>[["normal","BlueClipLevel2","action",10]]</t>
-  </si>
-  <si>
     <t>[0.9,2,4]</t>
   </si>
   <si>
     <t>蓝色3</t>
   </si>
   <si>
-    <t>[["normal","BlueClipLevel3","action",10]]</t>
-  </si>
-  <si>
     <t>[0.8,1,3]</t>
   </si>
   <si>
     <t>紫色4</t>
-  </si>
-  <si>
-    <t>[["normal","BlueClipLevel4","action",10]]</t>
   </si>
   <si>
     <t>[0.7,0.9,2]</t>
@@ -888,16 +873,33 @@
     <t>[["idle","transmitDoor","action",10]]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>渲染源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>clip_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>clip_2</t>
+  </si>
+  <si>
+    <t>clip_3</t>
+  </si>
+  <si>
+    <t>clip_4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +930,21 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1029,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,13 +1131,19 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2488,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2508,23 +2531,23 @@
       <c r="B1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>82</v>
+      <c r="C1" s="32" t="s">
+        <v>186</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5">
@@ -2532,10 +2555,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>187</v>
       </c>
       <c r="D2" s="4">
         <v>50</v>
@@ -2547,10 +2570,10 @@
         <v>0.4</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5">
@@ -2558,10 +2581,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>188</v>
       </c>
       <c r="D3" s="4">
         <v>60</v>
@@ -2573,7 +2596,7 @@
         <v>0.4</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5">
@@ -2581,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>189</v>
       </c>
       <c r="D4" s="4">
         <v>70</v>
@@ -2596,7 +2619,7 @@
         <v>0.35</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5">
@@ -2604,10 +2627,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>190</v>
       </c>
       <c r="D5" s="4">
         <v>80</v>
@@ -2619,7 +2642,7 @@
         <v>0.35</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2628,6 +2651,7 @@
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2646,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2706,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2728,22 +2752,22 @@
         <v>48</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2751,14 +2775,14 @@
         <v>1001</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2766,20 +2790,20 @@
         <v>1002</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2787,19 +2811,19 @@
         <v>1003</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2807,19 +2831,19 @@
         <v>1004</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2827,17 +2851,17 @@
         <v>1005</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2845,10 +2869,10 @@
         <v>1006</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2866,7 +2890,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2882,25 +2906,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="69" customHeight="1">
@@ -2908,10 +2932,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4">
@@ -2921,7 +2945,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -2932,10 +2956,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4">
@@ -2945,7 +2969,7 @@
         <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -2956,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4">
@@ -2969,7 +2993,7 @@
         <v>180</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
@@ -2980,10 +3004,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4">
@@ -2993,7 +3017,7 @@
         <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -3004,10 +3028,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4">
@@ -3017,7 +3041,7 @@
         <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -3028,10 +3052,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4">
@@ -3041,7 +3065,7 @@
         <v>190</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -3052,10 +3076,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4">
@@ -3065,7 +3089,7 @@
         <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -3076,10 +3100,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4">
@@ -3089,7 +3113,7 @@
         <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -3100,10 +3124,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4">
@@ -3113,7 +3137,7 @@
         <v>190</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -3124,10 +3148,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4">
@@ -3137,7 +3161,7 @@
         <v>195</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -3148,10 +3172,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4">
@@ -3161,7 +3185,7 @@
         <v>195</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
@@ -3172,10 +3196,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4">
@@ -3185,7 +3209,7 @@
         <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
@@ -3196,10 +3220,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4">
@@ -3209,7 +3233,7 @@
         <v>195</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
@@ -3220,10 +3244,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4">
@@ -3233,7 +3257,7 @@
         <v>195</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -3244,10 +3268,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4">
@@ -3257,7 +3281,7 @@
         <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -3268,10 +3292,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4">
@@ -3281,7 +3305,7 @@
         <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
@@ -3292,10 +3316,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4">
@@ -3305,7 +3329,7 @@
         <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -3316,10 +3340,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4">
@@ -3329,7 +3353,7 @@
         <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
@@ -3340,10 +3364,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4">
@@ -3353,7 +3377,7 @@
         <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="193">
   <si>
     <t>id</t>
   </si>
@@ -451,28 +451,16 @@
     <t>备注（对应等级怪物的时间）</t>
   </si>
   <si>
-    <t>白板1</t>
-  </si>
-  <si>
     <t>[1,3,5]</t>
   </si>
   <si>
     <t>[等级1,等级2，等级3]</t>
   </si>
   <si>
-    <t>绿色2</t>
-  </si>
-  <si>
     <t>[0.9,2,4]</t>
   </si>
   <si>
-    <t>蓝色3</t>
-  </si>
-  <si>
     <t>[0.8,1,3]</t>
-  </si>
-  <si>
-    <t>紫色4</t>
   </si>
   <si>
     <t>[0.7,0.9,2]</t>
@@ -889,6 +877,30 @@
   </si>
   <si>
     <t>clip_4</t>
+  </si>
+  <si>
+    <t>是否在图鉴中显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级夹子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级夹子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级夹子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>究极夹子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2509,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2524,7 +2536,7 @@
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2532,7 +2544,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -2549,16 +2561,19 @@
       <c r="H1" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="22.5">
+      <c r="I1" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="31" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D2" s="4">
         <v>50</v>
@@ -2570,21 +2585,24 @@
         <v>0.4</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="22.5">
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="22.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>89</v>
+      <c r="B3" s="31" t="s">
+        <v>190</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D3" s="4">
         <v>60</v>
@@ -2596,18 +2614,21 @@
         <v>0.4</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="22.5">
+        <v>88</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="22.5">
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>91</v>
+      <c r="B4" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D4" s="4">
         <v>70</v>
@@ -2619,18 +2640,21 @@
         <v>0.35</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22.5">
+        <v>89</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="22.5">
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>93</v>
+      <c r="B5" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D5" s="4">
         <v>80</v>
@@ -2642,7 +2666,10 @@
         <v>0.35</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2670,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2752,22 +2779,22 @@
         <v>48</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2775,14 +2802,14 @@
         <v>1001</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2790,20 +2817,20 @@
         <v>1002</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2811,19 +2838,19 @@
         <v>1003</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2831,19 +2858,19 @@
         <v>1004</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2851,17 +2878,17 @@
         <v>1005</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2869,10 +2896,10 @@
         <v>1006</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2887,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2899,43 +2926,47 @@
     <col min="3" max="3" width="26.75" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="69" customHeight="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="69" customHeight="1">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4">
@@ -2945,21 +2976,24 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="66" customHeight="1">
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="66" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4">
@@ -2969,21 +3003,24 @@
         <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="78.95" customHeight="1">
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="78.95" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4">
@@ -2993,21 +3030,24 @@
         <v>180</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23.25" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4">
@@ -3017,21 +3057,24 @@
         <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4">
@@ -3041,21 +3084,24 @@
         <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4">
@@ -3065,21 +3111,24 @@
         <v>190</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4">
@@ -3089,21 +3138,24 @@
         <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4">
@@ -3113,21 +3165,24 @@
         <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4">
@@ -3137,21 +3192,24 @@
         <v>190</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4">
@@ -3161,21 +3219,24 @@
         <v>195</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4">
@@ -3185,21 +3246,24 @@
         <v>195</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4">
@@ -3209,21 +3273,24 @@
         <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4">
@@ -3233,21 +3300,24 @@
         <v>195</v>
       </c>
       <c r="G14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4">
@@ -3257,21 +3327,24 @@
         <v>195</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4">
@@ -3281,21 +3354,24 @@
         <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4">
@@ -3305,21 +3381,24 @@
         <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4">
@@ -3329,21 +3408,24 @@
         <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4">
@@ -3353,21 +3435,24 @@
         <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4">
@@ -3377,10 +3462,13 @@
         <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +3477,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\CatchDoll\resource\table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11595" activeTab="3"/>
+    <workbookView windowWidth="20520" windowHeight="10425" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -439,6 +434,9 @@
     <t>夹子名称</t>
   </si>
   <si>
+    <t>渲染源</t>
+  </si>
+  <si>
     <t>伤害</t>
   </si>
   <si>
@@ -451,16 +449,43 @@
     <t>备注（对应等级怪物的时间）</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>低级夹子</t>
+  </si>
+  <si>
+    <t>clip_1</t>
+  </si>
+  <si>
     <t>[1,3,5]</t>
   </si>
   <si>
     <t>[等级1,等级2，等级3]</t>
   </si>
   <si>
+    <t>中级夹子</t>
+  </si>
+  <si>
+    <t>clip_2</t>
+  </si>
+  <si>
     <t>[0.9,2,4]</t>
   </si>
   <si>
+    <t>高级夹子</t>
+  </si>
+  <si>
+    <t>clip_3</t>
+  </si>
+  <si>
     <t>[0.8,1,3]</t>
+  </si>
+  <si>
+    <t>究极夹子</t>
+  </si>
+  <si>
+    <t>clip_4</t>
   </si>
   <si>
     <t>[0.7,0.9,2]</t>
@@ -630,12 +655,15 @@
     <t>[[1,-7,113,]]</t>
   </si>
   <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>[["idle","transmitDoor","action",10]]</t>
+  </si>
+  <si>
     <t>怪兽名称</t>
   </si>
   <si>
-    <t>渲染源</t>
-  </si>
-  <si>
     <t>展示</t>
   </si>
   <si>
@@ -645,7 +673,7 @@
     <t>移动速度</t>
   </si>
   <si>
-    <t>等级</t>
+    <t>是否在图鉴中显示</t>
   </si>
   <si>
     <t>大眼黑</t>
@@ -854,64 +882,149 @@
     <t>[[0,-9,53,]]</t>
   </si>
   <si>
-    <t>传送门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["idle","transmitDoor","action",10]]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>渲染源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clip_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clip_2</t>
-  </si>
-  <si>
-    <t>clip_3</t>
-  </si>
-  <si>
-    <t>clip_4</t>
-  </si>
-  <si>
-    <t>是否在图鉴中显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>低级夹子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级夹子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级夹子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>究极夹子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>独眼</t>
+  </si>
+  <si>
+    <t>duyanguai</t>
+  </si>
+  <si>
+    <t>[[0,-9,54,]]</t>
+  </si>
+  <si>
+    <t>狐狸红</t>
+  </si>
+  <si>
+    <t>hongsesongsu</t>
+  </si>
+  <si>
+    <t>[[0,-9,55,]]</t>
+  </si>
+  <si>
+    <t>狐狸蓝</t>
+  </si>
+  <si>
+    <t>hongsesongsu_2</t>
+  </si>
+  <si>
+    <t>[[0,-9,56,]]</t>
+  </si>
+  <si>
+    <t>狐狸绿</t>
+  </si>
+  <si>
+    <t>hongsesongsu_3</t>
+  </si>
+  <si>
+    <t>[[0,-9,57,]]</t>
+  </si>
+  <si>
+    <t>黄鸭</t>
+  </si>
+  <si>
+    <t>xiaohuangya</t>
+  </si>
+  <si>
+    <t>[[0,-9,58,]]</t>
+  </si>
+  <si>
+    <t>狮子黄</t>
+  </si>
+  <si>
+    <t>shizi</t>
+  </si>
+  <si>
+    <t>[[0,-9,59,]]</t>
+  </si>
+  <si>
+    <t>狮子绿</t>
+  </si>
+  <si>
+    <t>shizi_2</t>
+  </si>
+  <si>
+    <t>[[0,-9,60,]]</t>
+  </si>
+  <si>
+    <t>兔子紫</t>
+  </si>
+  <si>
+    <t>tuzi</t>
+  </si>
+  <si>
+    <t>[[0,-9,61,]]</t>
+  </si>
+  <si>
+    <t>兔子粉</t>
+  </si>
+  <si>
+    <t>tuzi_2</t>
+  </si>
+  <si>
+    <t>[[0,-9,62,]]</t>
+  </si>
+  <si>
+    <t>乌鸦黄</t>
+  </si>
+  <si>
+    <t>baiyingwu</t>
+  </si>
+  <si>
+    <t>[[0,-9,63,]]</t>
+  </si>
+  <si>
+    <t>乌鸦蓝</t>
+  </si>
+  <si>
+    <t>baiyingwu_2</t>
+  </si>
+  <si>
+    <t>[[0,-9,64,]]</t>
+  </si>
+  <si>
+    <t>熊猫蓝</t>
+  </si>
+  <si>
+    <t>xiongmao</t>
+  </si>
+  <si>
+    <t>[[0,-9,65,]]</t>
+  </si>
+  <si>
+    <t>熊猫棕</t>
+  </si>
+  <si>
+    <t>xiongmao_2</t>
+  </si>
+  <si>
+    <t>[[0,-9,66,]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,34 +1047,150 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,13 +1205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39988402966399123"/>
+        <fgColor theme="4" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,19 +1223,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39985351115451523"/>
+        <fgColor theme="5" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641044"/>
+        <fgColor theme="6" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39985351115451523"/>
+        <fgColor theme="9" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,17 +1247,271 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1046,19 +1529,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,6 +1725,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,16 +1743,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1152,89 +1806,61 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="注释 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="注释 2" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1247,80 +1873,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1578,20 +2133,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="31.75" style="4" customWidth="1"/>
@@ -1618,7 +2174,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1638,7 +2194,7 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="33">
         <v>0.03</v>
       </c>
     </row>
@@ -1658,7 +2214,7 @@
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="33">
         <v>0.25</v>
       </c>
     </row>
@@ -1678,7 +2234,7 @@
       <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="33">
         <v>0.15</v>
       </c>
     </row>
@@ -1689,7 +2245,7 @@
       <c r="B5" s="4">
         <v>-180</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1698,7 +2254,7 @@
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="33">
         <v>0.15</v>
       </c>
     </row>
@@ -1718,7 +2274,7 @@
       <c r="E6" s="4">
         <v>12</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="33">
         <v>0.1</v>
       </c>
     </row>
@@ -1738,22 +2294,23 @@
       <c r="E7" s="4">
         <v>15</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="33">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1769,14 +2326,14 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1786,7 +2343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1802,11 +2359,11 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1822,11 +2379,11 @@
       <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1842,11 +2399,11 @@
       <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1862,11 +2419,11 @@
       <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1883,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1900,7 +2457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1917,7 +2474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1933,11 +2490,11 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1953,11 +2510,11 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1973,11 +2530,11 @@
       <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1993,11 +2550,11 @@
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2014,7 +2571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2031,65 +2588,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="G15" s="26" t="s">
+    <row r="15" spans="7:12">
+      <c r="G15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="G16" s="26"/>
-      <c r="H16" s="27">
+    <row r="16" spans="7:12">
+      <c r="G16" s="30"/>
+      <c r="H16" s="31">
         <v>0.4</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="31">
         <v>0.3</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="31">
         <v>0.15</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="31">
         <v>0.1</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="31">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="37.625" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
@@ -2100,7 +2658,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2215,14 +2773,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1">
-      <c r="A8" s="20">
+    <row r="8" s="22" customFormat="1" spans="1:5">
+      <c r="A8" s="24">
         <v>13</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="4">
@@ -2232,14 +2790,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1">
-      <c r="A9" s="20">
+    <row r="9" s="22" customFormat="1" spans="1:5">
+      <c r="A9" s="24">
         <v>14</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="4">
@@ -2249,14 +2807,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="18" customFormat="1">
-      <c r="A10" s="20">
+    <row r="10" s="22" customFormat="1" spans="1:5">
+      <c r="A10" s="24">
         <v>15</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="4">
@@ -2317,14 +2875,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1">
-      <c r="A14" s="20">
+    <row r="14" s="22" customFormat="1" spans="1:5">
+      <c r="A14" s="24">
         <v>19</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="4">
@@ -2334,14 +2892,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1">
-      <c r="A15" s="20">
+    <row r="15" s="22" customFormat="1" spans="1:5">
+      <c r="A15" s="24">
         <v>20</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="4">
@@ -2351,14 +2909,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1">
-      <c r="A16" s="20">
+    <row r="16" s="22" customFormat="1" spans="1:5">
+      <c r="A16" s="24">
         <v>21</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="4">
@@ -2369,165 +2927,166 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="22">
+      <c r="A17" s="26">
         <v>1001</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="26">
         <v>-1</v>
       </c>
       <c r="D17" s="4">
         <v>-1</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="27" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22">
+      <c r="A18" s="26">
         <v>1002</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="26">
         <v>-1</v>
       </c>
       <c r="D18" s="4">
         <v>-1</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="22">
+      <c r="A19" s="26">
         <v>1003</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="26">
         <v>-1</v>
       </c>
       <c r="D19" s="4">
         <v>-1</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="22">
+      <c r="A20" s="26">
         <v>1004</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="26">
         <v>-1</v>
       </c>
       <c r="D20" s="4">
         <v>-1</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="22">
+      <c r="A21" s="26">
         <v>1005</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="26">
         <v>-1</v>
       </c>
       <c r="D21" s="4">
         <v>-1</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="24">
+      <c r="A22" s="28">
         <v>5001</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="28">
         <v>-1</v>
       </c>
       <c r="D22" s="4">
         <v>-1</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="28">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="24">
+      <c r="A23" s="28">
         <v>5002</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="28">
         <v>-1</v>
       </c>
       <c r="D23" s="4">
         <v>-1</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="28">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="24">
+      <c r="A24" s="28">
         <v>5003</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="28">
         <v>-1</v>
       </c>
       <c r="D24" s="4">
         <v>-1</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="28">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A17 A19:A20 A22:A24">
-    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A21">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="61.25" customWidth="1"/>
@@ -2543,37 +3102,37 @@
       <c r="B1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>182</v>
+      <c r="C1" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="22.5">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>183</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" spans="1:9">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="D2" s="4">
         <v>50</v>
@@ -2584,25 +3143,25 @@
       <c r="F2" s="4">
         <v>0.4</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>87</v>
+      <c r="G2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5">
-      <c r="A3" s="10">
+    <row r="3" ht="22.5" spans="1:9">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>184</v>
+      <c r="B3" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="D3" s="4">
         <v>60</v>
@@ -2613,22 +3172,22 @@
       <c r="F3" s="4">
         <v>0.4</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>88</v>
+      <c r="G3" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="I3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.5">
-      <c r="A4" s="17">
+    <row r="4" ht="22.5" spans="1:9">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>185</v>
+      <c r="B4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="D4" s="4">
         <v>70</v>
@@ -2639,22 +3198,22 @@
       <c r="F4" s="4">
         <v>0.35</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>89</v>
+      <c r="G4" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="I4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.5">
-      <c r="A5" s="17">
+    <row r="5" ht="22.5" spans="1:9">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>186</v>
+      <c r="B5" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="D5" s="4">
         <v>80</v>
@@ -2665,42 +3224,43 @@
       <c r="F5" s="4">
         <v>0.35</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>90</v>
+      <c r="G5" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="I5" s="4">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="A1" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>92</v>
+      <c r="B1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2748,20 +3308,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="49.625" customWidth="1"/>
     <col min="4" max="4" width="48.5" customWidth="1"/>
@@ -2772,44 +3333,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="C1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1001</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2817,20 +3378,20 @@
         <v>1002</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>106</v>
+        <v>114</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2838,19 +3399,19 @@
         <v>1003</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="G4" s="16"/>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2858,19 +3419,19 @@
         <v>1004</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="14"/>
+        <v>123</v>
+      </c>
+      <c r="G5" s="16"/>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2878,46 +3439,47 @@
         <v>1005</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
       <c r="E10" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2934,39 +3496,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="69" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" ht="69" customHeight="1" spans="1:9">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4">
@@ -2975,8 +3537,8 @@
       <c r="F2" s="4">
         <v>180</v>
       </c>
-      <c r="G2" t="s">
-        <v>126</v>
+      <c r="G2" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -2985,15 +3547,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="66" customHeight="1">
+    <row r="3" ht="66" customHeight="1" spans="1:9">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4">
@@ -3002,25 +3564,25 @@
       <c r="F3" s="4">
         <v>180</v>
       </c>
-      <c r="G3" t="s">
-        <v>129</v>
+      <c r="G3" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="78.95" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="78.95" customHeight="1" spans="1:9">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4">
@@ -3029,25 +3591,25 @@
       <c r="F4" s="4">
         <v>180</v>
       </c>
-      <c r="G4" t="s">
-        <v>132</v>
+      <c r="G4" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="23.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="23.25" customHeight="1" spans="1:9">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4">
@@ -3056,14 +3618,14 @@
       <c r="F5" s="4">
         <v>180</v>
       </c>
-      <c r="G5" t="s">
-        <v>135</v>
+      <c r="G5" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3071,10 +3633,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4">
@@ -3083,8 +3645,8 @@
       <c r="F6" s="4">
         <v>190</v>
       </c>
-      <c r="G6" t="s">
-        <v>138</v>
+      <c r="G6" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -3098,10 +3660,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4">
@@ -3110,14 +3672,14 @@
       <c r="F7" s="4">
         <v>190</v>
       </c>
-      <c r="G7" t="s">
-        <v>141</v>
+      <c r="G7" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3125,10 +3687,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4">
@@ -3137,14 +3699,14 @@
       <c r="F8" s="4">
         <v>190</v>
       </c>
-      <c r="G8" t="s">
-        <v>143</v>
+      <c r="G8" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3152,10 +3714,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4">
@@ -3164,14 +3726,14 @@
       <c r="F9" s="4">
         <v>190</v>
       </c>
-      <c r="G9" t="s">
-        <v>146</v>
+      <c r="G9" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3179,10 +3741,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4">
@@ -3191,14 +3753,14 @@
       <c r="F10" s="4">
         <v>190</v>
       </c>
-      <c r="G10" t="s">
-        <v>149</v>
+      <c r="G10" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3206,10 +3768,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4">
@@ -3218,8 +3780,8 @@
       <c r="F11" s="4">
         <v>195</v>
       </c>
-      <c r="G11" t="s">
-        <v>152</v>
+      <c r="G11" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -3233,10 +3795,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4">
@@ -3245,14 +3807,14 @@
       <c r="F12" s="4">
         <v>195</v>
       </c>
-      <c r="G12" t="s">
-        <v>155</v>
+      <c r="G12" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3260,10 +3822,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4">
@@ -3272,14 +3834,14 @@
       <c r="F13" s="4">
         <v>195</v>
       </c>
-      <c r="G13" t="s">
-        <v>158</v>
+      <c r="G13" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3287,10 +3849,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4">
@@ -3299,14 +3861,14 @@
       <c r="F14" s="4">
         <v>195</v>
       </c>
-      <c r="G14" t="s">
-        <v>161</v>
+      <c r="G14" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3314,10 +3876,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4">
@@ -3326,14 +3888,14 @@
       <c r="F15" s="4">
         <v>195</v>
       </c>
-      <c r="G15" t="s">
-        <v>164</v>
+      <c r="G15" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3341,10 +3903,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4">
@@ -3353,8 +3915,8 @@
       <c r="F16" s="4">
         <v>195</v>
       </c>
-      <c r="G16" t="s">
-        <v>167</v>
+      <c r="G16" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -3368,10 +3930,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4">
@@ -3380,14 +3942,14 @@
       <c r="F17" s="4">
         <v>195</v>
       </c>
-      <c r="G17" t="s">
-        <v>170</v>
+      <c r="G17" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3395,10 +3957,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4">
@@ -3407,14 +3969,14 @@
       <c r="F18" s="4">
         <v>195</v>
       </c>
-      <c r="G18" t="s">
-        <v>173</v>
+      <c r="G18" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3422,10 +3984,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4">
@@ -3434,14 +3996,14 @@
       <c r="F19" s="4">
         <v>195</v>
       </c>
-      <c r="G19" t="s">
-        <v>176</v>
+      <c r="G19" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
       <c r="I19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3449,10 +4011,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4">
@@ -3461,38 +4023,392 @@
       <c r="F20" s="4">
         <v>195</v>
       </c>
-      <c r="G20" t="s">
-        <v>179</v>
+      <c r="G20" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="4">
+        <v>50</v>
+      </c>
+      <c r="F21" s="8">
+        <v>200</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="4">
+        <v>50</v>
+      </c>
+      <c r="F22" s="8">
+        <v>200</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="4">
+        <v>50</v>
+      </c>
+      <c r="F23" s="8">
+        <v>200</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="4">
+        <v>50</v>
+      </c>
+      <c r="F24" s="8">
+        <v>200</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="4">
+        <v>50</v>
+      </c>
+      <c r="F25" s="8">
+        <v>200</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" s="8">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="4">
+        <v>50</v>
+      </c>
+      <c r="F26" s="8">
+        <v>200</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="4">
+        <v>50</v>
+      </c>
+      <c r="F27" s="8">
+        <v>200</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" s="8">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="4">
+        <v>50</v>
+      </c>
+      <c r="F28" s="8">
+        <v>200</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="4">
+        <v>50</v>
+      </c>
+      <c r="F29" s="8">
+        <v>200</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="4">
+        <v>50</v>
+      </c>
+      <c r="F30" s="8">
+        <v>200</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" s="8">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="4">
+        <v>50</v>
+      </c>
+      <c r="F31" s="8">
+        <v>200</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="4">
+        <v>50</v>
+      </c>
+      <c r="F32" s="8">
+        <v>200</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="4">
+        <v>50</v>
+      </c>
+      <c r="F33" s="8">
+        <v>200</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H33" s="8">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A20">
+  <conditionalFormatting sqref="A1:A31">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <sortState ref="A1">
     <sortCondition ref="A1"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20520" windowHeight="10425" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -1004,27 +1004,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,7 +1034,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,6 +1065,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,32 +1148,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1150,47 +1176,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,13 +1234,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,37 +1324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,13 +1348,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,103 +1396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,6 +1413,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1481,26 +1500,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1514,36 +1513,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1552,10 +1521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1564,143 +1533,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1725,12 +1694,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1752,13 +1715,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1769,9 +1729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2174,7 +2131,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2194,7 +2151,7 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="29">
         <v>0.03</v>
       </c>
     </row>
@@ -2214,7 +2171,7 @@
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="29">
         <v>0.25</v>
       </c>
     </row>
@@ -2234,7 +2191,7 @@
       <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -2245,7 +2202,7 @@
       <c r="B5" s="4">
         <v>-180</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2254,7 +2211,7 @@
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -2274,7 +2231,7 @@
       <c r="E6" s="4">
         <v>12</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="29">
         <v>0.1</v>
       </c>
     </row>
@@ -2294,7 +2251,7 @@
       <c r="E7" s="4">
         <v>15</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="29">
         <v>0.05</v>
       </c>
     </row>
@@ -2333,7 +2290,7 @@
       <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2359,7 +2316,7 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2379,7 +2336,7 @@
       <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2399,7 +2356,7 @@
       <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2419,7 +2376,7 @@
       <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2490,7 +2447,7 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2510,7 +2467,7 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2530,7 +2487,7 @@
       <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2550,7 +2507,7 @@
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2589,40 +2546,40 @@
       </c>
     </row>
     <row r="15" spans="7:12">
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="7:12">
-      <c r="G16" s="30"/>
-      <c r="H16" s="31">
+      <c r="G16" s="26"/>
+      <c r="H16" s="27">
         <v>0.4</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="27">
         <v>0.3</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="27">
         <v>0.15</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="27">
         <v>0.1</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="27">
         <v>0.05</v>
       </c>
     </row>
@@ -2658,7 +2615,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2773,14 +2730,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" s="22" customFormat="1" spans="1:5">
-      <c r="A8" s="24">
+    <row r="8" s="19" customFormat="1" spans="1:5">
+      <c r="A8" s="20">
         <v>13</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="4">
@@ -2790,14 +2747,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" s="22" customFormat="1" spans="1:5">
-      <c r="A9" s="24">
+    <row r="9" s="19" customFormat="1" spans="1:5">
+      <c r="A9" s="20">
         <v>14</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="4">
@@ -2807,14 +2764,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" s="22" customFormat="1" spans="1:5">
-      <c r="A10" s="24">
+    <row r="10" s="19" customFormat="1" spans="1:5">
+      <c r="A10" s="20">
         <v>15</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="4">
@@ -2875,14 +2832,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" s="22" customFormat="1" spans="1:5">
-      <c r="A14" s="24">
+    <row r="14" s="19" customFormat="1" spans="1:5">
+      <c r="A14" s="20">
         <v>19</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="4">
@@ -2892,14 +2849,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" s="22" customFormat="1" spans="1:5">
-      <c r="A15" s="24">
+    <row r="15" s="19" customFormat="1" spans="1:5">
+      <c r="A15" s="20">
         <v>20</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="4">
@@ -2909,14 +2866,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" s="22" customFormat="1" spans="1:5">
-      <c r="A16" s="24">
+    <row r="16" s="19" customFormat="1" spans="1:5">
+      <c r="A16" s="20">
         <v>21</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="4">
@@ -2927,138 +2884,138 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="26">
+      <c r="A17" s="22">
         <v>1001</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="22">
         <v>-1</v>
       </c>
       <c r="D17" s="4">
         <v>-1</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="26">
+      <c r="A18" s="22">
         <v>1002</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="22">
         <v>-1</v>
       </c>
       <c r="D18" s="4">
         <v>-1</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="26">
+      <c r="A19" s="22">
         <v>1003</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="22">
         <v>-1</v>
       </c>
       <c r="D19" s="4">
         <v>-1</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="26">
+      <c r="A20" s="22">
         <v>1004</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="22">
         <v>-1</v>
       </c>
       <c r="D20" s="4">
         <v>-1</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="26">
+      <c r="A21" s="22">
         <v>1005</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="22">
         <v>-1</v>
       </c>
       <c r="D21" s="4">
         <v>-1</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="28">
+      <c r="A22" s="24">
         <v>5001</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="24">
         <v>-1</v>
       </c>
       <c r="D22" s="4">
         <v>-1</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="24">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="28">
+      <c r="A23" s="24">
         <v>5002</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="24">
         <v>-1</v>
       </c>
       <c r="D23" s="4">
         <v>-1</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="24">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="28">
+      <c r="A24" s="24">
         <v>5003</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="24">
         <v>-1</v>
       </c>
       <c r="D24" s="4">
         <v>-1</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="24">
         <v>-1</v>
       </c>
     </row>
@@ -3102,7 +3059,7 @@
       <c r="B1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -3125,13 +3082,13 @@
       </c>
     </row>
     <row r="2" ht="22.5" spans="1:9">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D2" s="4">
@@ -3143,10 +3100,10 @@
       <c r="F2" s="4">
         <v>0.4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="4">
@@ -3154,13 +3111,13 @@
       </c>
     </row>
     <row r="3" ht="22.5" spans="1:9">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="4">
@@ -3172,7 +3129,7 @@
       <c r="F3" s="4">
         <v>0.4</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I3" s="4">
@@ -3180,13 +3137,13 @@
       </c>
     </row>
     <row r="4" ht="22.5" spans="1:9">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="4">
@@ -3198,7 +3155,7 @@
       <c r="F4" s="4">
         <v>0.35</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="16" t="s">
         <v>97</v>
       </c>
       <c r="I4" s="4">
@@ -3206,13 +3163,13 @@
       </c>
     </row>
     <row r="5" ht="22.5" spans="1:9">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="4">
@@ -3224,7 +3181,7 @@
       <c r="F5" s="4">
         <v>0.35</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>100</v>
       </c>
       <c r="I5" s="4">
@@ -3253,13 +3210,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3333,28 +3290,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3365,11 +3322,11 @@
       <c r="B2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3387,10 +3344,10 @@
       <c r="F3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3409,7 +3366,7 @@
       <c r="F4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="14"/>
       <c r="H4" t="s">
         <v>120</v>
       </c>
@@ -3429,7 +3386,7 @@
       <c r="F5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="14"/>
       <c r="H5" t="s">
         <v>124</v>
       </c>
@@ -3447,7 +3404,7 @@
       <c r="F6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="12"/>
       <c r="H6" t="s">
         <v>127</v>
       </c>
@@ -3459,7 +3416,7 @@
       <c r="B7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3478,8 +3435,8 @@
   <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3537,7 +3494,7 @@
       <c r="F2" s="4">
         <v>180</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>137</v>
       </c>
       <c r="H2" s="4">
@@ -3564,7 +3521,7 @@
       <c r="F3" s="4">
         <v>180</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H3" s="4">
@@ -3591,7 +3548,7 @@
       <c r="F4" s="4">
         <v>180</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H4" s="4">
@@ -3618,7 +3575,7 @@
       <c r="F5" s="4">
         <v>180</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H5" s="4">
@@ -3645,7 +3602,7 @@
       <c r="F6" s="4">
         <v>190</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="H6" s="4">
@@ -3672,7 +3629,7 @@
       <c r="F7" s="4">
         <v>190</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>152</v>
       </c>
       <c r="H7" s="4">
@@ -3699,7 +3656,7 @@
       <c r="F8" s="4">
         <v>190</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>154</v>
       </c>
       <c r="H8" s="4">
@@ -3726,7 +3683,7 @@
       <c r="F9" s="4">
         <v>190</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>157</v>
       </c>
       <c r="H9" s="4">
@@ -3753,7 +3710,7 @@
       <c r="F10" s="4">
         <v>190</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>160</v>
       </c>
       <c r="H10" s="4">
@@ -3780,7 +3737,7 @@
       <c r="F11" s="4">
         <v>195</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>163</v>
       </c>
       <c r="H11" s="4">
@@ -3807,7 +3764,7 @@
       <c r="F12" s="4">
         <v>195</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H12" s="4">
@@ -3834,7 +3791,7 @@
       <c r="F13" s="4">
         <v>195</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>169</v>
       </c>
       <c r="H13" s="4">
@@ -3861,7 +3818,7 @@
       <c r="F14" s="4">
         <v>195</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="4" t="s">
         <v>172</v>
       </c>
       <c r="H14" s="4">
@@ -3888,7 +3845,7 @@
       <c r="F15" s="4">
         <v>195</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="4" t="s">
         <v>175</v>
       </c>
       <c r="H15" s="4">
@@ -3915,7 +3872,7 @@
       <c r="F16" s="4">
         <v>195</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="4" t="s">
         <v>178</v>
       </c>
       <c r="H16" s="4">
@@ -3942,7 +3899,7 @@
       <c r="F17" s="4">
         <v>195</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="H17" s="4">
@@ -3969,7 +3926,7 @@
       <c r="F18" s="4">
         <v>195</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="4" t="s">
         <v>184</v>
       </c>
       <c r="H18" s="4">
@@ -3996,7 +3953,7 @@
       <c r="F19" s="4">
         <v>195</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="4" t="s">
         <v>187</v>
       </c>
       <c r="H19" s="4">
@@ -4023,7 +3980,7 @@
       <c r="F20" s="4">
         <v>195</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="4" t="s">
         <v>190</v>
       </c>
       <c r="H20" s="4">
@@ -4037,351 +3994,351 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="4">
         <v>50</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>200</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="4">
         <v>2</v>
       </c>
       <c r="I21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="4">
         <v>50</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <v>200</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="4">
         <v>2</v>
       </c>
       <c r="I22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="4">
         <v>50</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="4">
         <v>200</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="4">
         <v>2</v>
       </c>
       <c r="I23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="4">
         <v>50</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="4">
         <v>200</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="4">
         <v>2</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="4">
         <v>50</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="4">
         <v>200</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="4">
         <v>2</v>
       </c>
       <c r="I25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="4">
         <v>50</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="4">
         <v>200</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="4">
         <v>2</v>
       </c>
       <c r="I26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="4">
         <v>50</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="4">
         <v>200</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="4">
         <v>2</v>
       </c>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="4">
         <v>50</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="4">
         <v>200</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="4">
         <v>2</v>
       </c>
       <c r="I28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="4">
         <v>50</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="4">
         <v>200</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="4">
         <v>2</v>
       </c>
       <c r="I29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="4">
         <v>50</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="4">
         <v>200</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="4">
         <v>2</v>
       </c>
       <c r="I30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="4">
         <v>50</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="4">
         <v>200</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="4">
         <v>2</v>
       </c>
       <c r="I31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="8">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="4">
         <v>50</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="4">
         <v>200</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="4">
         <v>2</v>
       </c>
       <c r="I32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="8">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="4">
         <v>50</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="4">
         <v>200</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="4">
         <v>2</v>
       </c>
       <c r="I33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="6"/>
+    <workbookView windowWidth="20040" windowHeight="9255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="199">
   <si>
     <t>id</t>
   </si>
@@ -676,6 +676,9 @@
     <t>是否在图鉴中显示</t>
   </si>
   <si>
+    <t>内部是否活跃</t>
+  </si>
+  <si>
     <t>大眼黑</t>
   </si>
   <si>
@@ -757,26 +760,7 @@
     <t>机器人A红</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jiqiyijiehon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>g</t>
-    </r>
+    <t>jiqiyijiehong</t>
   </si>
   <si>
     <t>[[0,-47,44,]]</t>
@@ -794,26 +778,7 @@
     <t>机器人A蓝</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jiqiyijiela</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
+    <t>jiqiyijielan</t>
   </si>
   <si>
     <t>[[-2,-49,48,]]</t>
@@ -882,121 +847,25 @@
     <t>[[0,-9,53,]]</t>
   </si>
   <si>
-    <t>独眼</t>
-  </si>
-  <si>
-    <t>duyanguai</t>
-  </si>
-  <si>
-    <t>[[0,-9,54,]]</t>
-  </si>
-  <si>
-    <t>狐狸红</t>
-  </si>
-  <si>
-    <t>hongsesongsu</t>
-  </si>
-  <si>
-    <t>[[0,-9,55,]]</t>
-  </si>
-  <si>
-    <t>狐狸蓝</t>
-  </si>
-  <si>
-    <t>hongsesongsu_2</t>
-  </si>
-  <si>
-    <t>[[0,-9,56,]]</t>
-  </si>
-  <si>
-    <t>狐狸绿</t>
-  </si>
-  <si>
-    <t>hongsesongsu_3</t>
-  </si>
-  <si>
-    <t>[[0,-9,57,]]</t>
-  </si>
-  <si>
-    <t>黄鸭</t>
-  </si>
-  <si>
-    <t>xiaohuangya</t>
-  </si>
-  <si>
-    <t>[[0,-9,58,]]</t>
-  </si>
-  <si>
-    <t>狮子黄</t>
-  </si>
-  <si>
-    <t>shizi</t>
-  </si>
-  <si>
-    <t>[[0,-9,59,]]</t>
-  </si>
-  <si>
-    <t>狮子绿</t>
-  </si>
-  <si>
-    <t>shizi_2</t>
-  </si>
-  <si>
-    <t>[[0,-9,60,]]</t>
-  </si>
-  <si>
-    <t>兔子紫</t>
-  </si>
-  <si>
-    <t>tuzi</t>
-  </si>
-  <si>
-    <t>[[0,-9,61,]]</t>
-  </si>
-  <si>
-    <t>兔子粉</t>
-  </si>
-  <si>
-    <t>tuzi_2</t>
-  </si>
-  <si>
-    <t>[[0,-9,62,]]</t>
-  </si>
-  <si>
-    <t>乌鸦黄</t>
-  </si>
-  <si>
-    <t>baiyingwu</t>
-  </si>
-  <si>
-    <t>[[0,-9,63,]]</t>
-  </si>
-  <si>
-    <t>乌鸦蓝</t>
-  </si>
-  <si>
-    <t>baiyingwu_2</t>
-  </si>
-  <si>
-    <t>[[0,-9,64,]]</t>
-  </si>
-  <si>
-    <t>熊猫蓝</t>
-  </si>
-  <si>
-    <t>xiongmao</t>
-  </si>
-  <si>
-    <t>[[0,-9,65,]]</t>
-  </si>
-  <si>
-    <t>熊猫棕</t>
-  </si>
-  <si>
-    <t>xiongmao_2</t>
-  </si>
-  <si>
-    <t>[[0,-9,66,]]</t>
+    <t>小鸭幼年绿</t>
+  </si>
+  <si>
+    <t>lvya</t>
+  </si>
+  <si>
+    <t>[[0,-8,69,]]</t>
+  </si>
+  <si>
+    <t>小鸭幼年紫</t>
+  </si>
+  <si>
+    <t>ziya</t>
+  </si>
+  <si>
+    <t>小鸭幼年黄</t>
+  </si>
+  <si>
+    <t>huangya</t>
   </si>
 </sst>
 </file>
@@ -1004,9 +873,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
@@ -1040,6 +909,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1048,8 +924,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,7 +963,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,6 +980,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,46 +1023,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,13 +1041,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,7 +1103,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1199,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,151 +1265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,6 +1310,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1451,17 +1335,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1481,17 +1354,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1504,15 +1382,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1521,10 +1390,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1533,143 +1402,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1692,6 +1561,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2131,7 +2006,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2151,7 +2026,7 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="31">
         <v>0.03</v>
       </c>
     </row>
@@ -2171,7 +2046,7 @@
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="31">
         <v>0.25</v>
       </c>
     </row>
@@ -2191,7 +2066,7 @@
       <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="31">
         <v>0.15</v>
       </c>
     </row>
@@ -2202,7 +2077,7 @@
       <c r="B5" s="4">
         <v>-180</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2211,7 +2086,7 @@
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="31">
         <v>0.15</v>
       </c>
     </row>
@@ -2231,7 +2106,7 @@
       <c r="E6" s="4">
         <v>12</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="31">
         <v>0.1</v>
       </c>
     </row>
@@ -2251,7 +2126,7 @@
       <c r="E7" s="4">
         <v>15</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="31">
         <v>0.05</v>
       </c>
     </row>
@@ -2290,7 +2165,7 @@
       <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2316,7 +2191,7 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2336,7 +2211,7 @@
       <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2356,7 +2231,7 @@
       <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2376,7 +2251,7 @@
       <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2447,7 +2322,7 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2467,7 +2342,7 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2487,7 +2362,7 @@
       <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2507,7 +2382,7 @@
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2546,40 +2421,40 @@
       </c>
     </row>
     <row r="15" spans="7:12">
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="7:12">
-      <c r="G16" s="26"/>
-      <c r="H16" s="27">
+      <c r="G16" s="28"/>
+      <c r="H16" s="29">
         <v>0.4</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="29">
         <v>0.3</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="29">
         <v>0.15</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="29">
         <v>0.1</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="29">
         <v>0.05</v>
       </c>
     </row>
@@ -2615,7 +2490,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2730,14 +2605,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="1" spans="1:5">
-      <c r="A8" s="20">
+    <row r="8" s="21" customFormat="1" spans="1:5">
+      <c r="A8" s="22">
         <v>13</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="4">
@@ -2747,14 +2622,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" spans="1:5">
-      <c r="A9" s="20">
+    <row r="9" s="21" customFormat="1" spans="1:5">
+      <c r="A9" s="22">
         <v>14</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="4">
@@ -2764,14 +2639,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" s="19" customFormat="1" spans="1:5">
-      <c r="A10" s="20">
+    <row r="10" s="21" customFormat="1" spans="1:5">
+      <c r="A10" s="22">
         <v>15</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="4">
@@ -2832,14 +2707,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="1" spans="1:5">
-      <c r="A14" s="20">
+    <row r="14" s="21" customFormat="1" spans="1:5">
+      <c r="A14" s="22">
         <v>19</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="4">
@@ -2849,14 +2724,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="1" spans="1:5">
-      <c r="A15" s="20">
+    <row r="15" s="21" customFormat="1" spans="1:5">
+      <c r="A15" s="22">
         <v>20</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="4">
@@ -2866,14 +2741,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" s="19" customFormat="1" spans="1:5">
-      <c r="A16" s="20">
+    <row r="16" s="21" customFormat="1" spans="1:5">
+      <c r="A16" s="22">
         <v>21</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="4">
@@ -2884,138 +2759,138 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="22">
+      <c r="A17" s="24">
         <v>1001</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="24">
         <v>-1</v>
       </c>
       <c r="D17" s="4">
         <v>-1</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22">
+      <c r="A18" s="24">
         <v>1002</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="24">
         <v>-1</v>
       </c>
       <c r="D18" s="4">
         <v>-1</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="22">
+      <c r="A19" s="24">
         <v>1003</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="24">
         <v>-1</v>
       </c>
       <c r="D19" s="4">
         <v>-1</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="22">
+      <c r="A20" s="24">
         <v>1004</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="24">
         <v>-1</v>
       </c>
       <c r="D20" s="4">
         <v>-1</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="22">
+      <c r="A21" s="24">
         <v>1005</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="24">
         <v>-1</v>
       </c>
       <c r="D21" s="4">
         <v>-1</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="24">
+      <c r="A22" s="26">
         <v>5001</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="26">
         <v>-1</v>
       </c>
       <c r="D22" s="4">
         <v>-1</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="24">
+      <c r="A23" s="26">
         <v>5002</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="26">
         <v>-1</v>
       </c>
       <c r="D23" s="4">
         <v>-1</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="24">
+      <c r="A24" s="26">
         <v>5003</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="26">
         <v>-1</v>
       </c>
       <c r="D24" s="4">
         <v>-1</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="26">
         <v>-1</v>
       </c>
     </row>
@@ -3059,7 +2934,7 @@
       <c r="B1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -3082,13 +2957,13 @@
       </c>
     </row>
     <row r="2" ht="22.5" spans="1:9">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>89</v>
       </c>
       <c r="D2" s="4">
@@ -3100,10 +2975,10 @@
       <c r="F2" s="4">
         <v>0.4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="19" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="4">
@@ -3111,13 +2986,13 @@
       </c>
     </row>
     <row r="3" ht="22.5" spans="1:9">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="4">
@@ -3129,7 +3004,7 @@
       <c r="F3" s="4">
         <v>0.4</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="18" t="s">
         <v>94</v>
       </c>
       <c r="I3" s="4">
@@ -3137,13 +3012,13 @@
       </c>
     </row>
     <row r="4" ht="22.5" spans="1:9">
-      <c r="A4" s="18">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="4">
@@ -3155,7 +3030,7 @@
       <c r="F4" s="4">
         <v>0.35</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>97</v>
       </c>
       <c r="I4" s="4">
@@ -3163,13 +3038,13 @@
       </c>
     </row>
     <row r="5" ht="22.5" spans="1:9">
-      <c r="A5" s="18">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="4">
@@ -3181,7 +3056,7 @@
       <c r="F5" s="4">
         <v>0.35</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="18" t="s">
         <v>100</v>
       </c>
       <c r="I5" s="4">
@@ -3210,13 +3085,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3290,28 +3165,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3322,11 +3197,11 @@
       <c r="B2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3344,10 +3219,10 @@
       <c r="F3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3366,7 +3241,7 @@
       <c r="F4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="16"/>
       <c r="H4" t="s">
         <v>120</v>
       </c>
@@ -3386,7 +3261,7 @@
       <c r="F5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="16"/>
       <c r="H5" t="s">
         <v>124</v>
       </c>
@@ -3404,7 +3279,7 @@
       <c r="F6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="14"/>
       <c r="H6" t="s">
         <v>127</v>
       </c>
@@ -3416,7 +3291,7 @@
       <c r="B7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3433,10 +3308,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3446,9 +3321,10 @@
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
     <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3476,16 +3352,19 @@
       <c r="I1" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" ht="69" customHeight="1" spans="1:9">
+      <c r="J1" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" ht="69" customHeight="1" spans="1:10">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4">
@@ -3495,7 +3374,7 @@
         <v>180</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -3503,16 +3382,19 @@
       <c r="I2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="66" customHeight="1" spans="1:9">
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="66" customHeight="1" spans="1:10">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4">
@@ -3522,7 +3404,7 @@
         <v>180</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -3530,16 +3412,19 @@
       <c r="I3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="78.95" customHeight="1" spans="1:9">
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="78.95" customHeight="1" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4">
@@ -3549,7 +3434,7 @@
         <v>180</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
@@ -3557,16 +3442,19 @@
       <c r="I4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" ht="23.25" customHeight="1" spans="1:9">
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="23.25" customHeight="1" spans="1:10">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4">
@@ -3576,7 +3464,7 @@
         <v>180</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -3584,16 +3472,19 @@
       <c r="I5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4">
@@ -3603,7 +3494,7 @@
         <v>190</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -3611,16 +3502,19 @@
       <c r="I6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4">
@@ -3630,7 +3524,7 @@
         <v>190</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -3638,16 +3532,19 @@
       <c r="I7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4">
@@ -3657,7 +3554,7 @@
         <v>190</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -3665,16 +3562,19 @@
       <c r="I8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4">
@@ -3684,7 +3584,7 @@
         <v>190</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -3692,16 +3592,19 @@
       <c r="I9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4">
@@ -3711,7 +3614,7 @@
         <v>190</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -3719,16 +3622,19 @@
       <c r="I10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4">
@@ -3738,7 +3644,7 @@
         <v>195</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -3746,16 +3652,19 @@
       <c r="I11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4">
@@ -3765,7 +3674,7 @@
         <v>195</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
@@ -3773,16 +3682,19 @@
       <c r="I12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4">
@@ -3792,7 +3704,7 @@
         <v>195</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
@@ -3800,16 +3712,19 @@
       <c r="I13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4">
@@ -3819,7 +3734,7 @@
         <v>195</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
@@ -3827,16 +3742,19 @@
       <c r="I14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4">
@@ -3846,7 +3764,7 @@
         <v>195</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -3854,16 +3772,19 @@
       <c r="I15" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4">
@@ -3873,7 +3794,7 @@
         <v>195</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -3881,16 +3802,19 @@
       <c r="I16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4">
@@ -3900,7 +3824,7 @@
         <v>195</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
@@ -3908,16 +3832,19 @@
       <c r="I17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4">
@@ -3927,7 +3854,7 @@
         <v>195</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -3935,16 +3862,19 @@
       <c r="I18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4">
@@ -3954,7 +3884,7 @@
         <v>195</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
@@ -3962,16 +3892,19 @@
       <c r="I19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4">
@@ -3981,7 +3914,7 @@
         <v>195</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
@@ -3989,16 +3922,19 @@
       <c r="I20" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4">
@@ -4007,44 +3943,50 @@
       <c r="F21" s="4">
         <v>200</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>193</v>
+      <c r="G21" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="H21" s="4">
         <v>2</v>
       </c>
       <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4">
         <v>50</v>
       </c>
       <c r="F22" s="4">
-        <v>200</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="H22" s="4">
         <v>2</v>
       </c>
       <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4059,287 +4001,129 @@
         <v>50</v>
       </c>
       <c r="F23" s="4">
-        <v>200</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="H23" s="4">
         <v>2</v>
       </c>
       <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>201</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="4">
-        <v>50</v>
-      </c>
-      <c r="F24" s="4">
-        <v>200</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H24" s="4">
-        <v>2</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="4">
-        <v>50</v>
-      </c>
-      <c r="F25" s="4">
-        <v>200</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>207</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="4">
-        <v>50</v>
-      </c>
-      <c r="F26" s="4">
-        <v>200</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H26" s="4">
-        <v>2</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="4">
-        <v>50</v>
-      </c>
-      <c r="F27" s="4">
-        <v>200</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H27" s="4">
-        <v>2</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="4">
-        <v>50</v>
-      </c>
-      <c r="F28" s="4">
-        <v>200</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H28" s="4">
-        <v>2</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="4">
-        <v>50</v>
-      </c>
-      <c r="F29" s="4">
-        <v>200</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H29" s="4">
-        <v>2</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="4">
-        <v>50</v>
-      </c>
-      <c r="F30" s="4">
-        <v>200</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H30" s="4">
-        <v>2</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="4">
-        <v>50</v>
-      </c>
-      <c r="F31" s="4">
-        <v>200</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H31" s="4">
-        <v>2</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="4">
-        <v>50</v>
-      </c>
-      <c r="F32" s="4">
-        <v>200</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="4">
-        <v>2</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>228</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="4">
-        <v>50</v>
-      </c>
-      <c r="F33" s="4">
-        <v>200</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="4">
-        <v>2</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A31">

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20040" windowHeight="9255" activeTab="6"/>
+    <workbookView windowHeight="12465" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="298">
   <si>
     <t>id</t>
   </si>
@@ -679,7 +679,7 @@
     <t>内部是否活跃</t>
   </si>
   <si>
-    <t>大眼黑</t>
+    <t>大眼黑（幼年）</t>
   </si>
   <si>
     <t>duyanhei</t>
@@ -688,7 +688,7 @@
     <t>[[-3,-4,46,]]</t>
   </si>
   <si>
-    <t>大眼红</t>
+    <t>大眼红(幼年)</t>
   </si>
   <si>
     <t>duyanhong</t>
@@ -697,7 +697,7 @@
     <t>[[-2,-4,47,]]</t>
   </si>
   <si>
-    <t>大眼蓝</t>
+    <t>大眼蓝（幼年）</t>
   </si>
   <si>
     <t>duyanlan</t>
@@ -706,7 +706,7 @@
     <t>[[-1,-3,44,]]</t>
   </si>
   <si>
-    <t>大眼绿</t>
+    <t>大眼幼年绿</t>
   </si>
   <si>
     <t>duyanlv</t>
@@ -715,157 +715,454 @@
     <t>[[-2,-2,48,]]</t>
   </si>
   <si>
-    <t>小猪黑</t>
-  </si>
-  <si>
-    <t>xiaozhuhei</t>
-  </si>
-  <si>
-    <t>[[1,-2,46,]]</t>
-  </si>
-  <si>
-    <t>小猪红</t>
-  </si>
-  <si>
-    <t>xiaozhuhong</t>
-  </si>
-  <si>
-    <t>[[2,1,48,]]</t>
-  </si>
-  <si>
-    <t>xiaozhuhuang</t>
-  </si>
-  <si>
-    <t>[[4,-1,46,]]</t>
-  </si>
-  <si>
-    <t>小猪蓝</t>
-  </si>
-  <si>
-    <t>xiaozhulan</t>
-  </si>
-  <si>
-    <t>[[5,1,44,]]</t>
-  </si>
-  <si>
-    <t>小猪绿</t>
-  </si>
-  <si>
-    <t>xiaozhulv</t>
-  </si>
-  <si>
-    <t>[[4,1,45,]]</t>
-  </si>
-  <si>
-    <t>机器人A红</t>
+    <t>大眼黄（成年）</t>
+  </si>
+  <si>
+    <t>erjieduyan-huang</t>
+  </si>
+  <si>
+    <t>[[-2,-2,49,]]</t>
+  </si>
+  <si>
+    <t>大眼绿(成年)</t>
+  </si>
+  <si>
+    <t>erjieduyan-lv</t>
+  </si>
+  <si>
+    <t>[[-2,-2,50,]]</t>
+  </si>
+  <si>
+    <t>大眼紫(成年)</t>
+  </si>
+  <si>
+    <t>erjieduyan-zi</t>
+  </si>
+  <si>
+    <t>[[-2,-2,51,]]</t>
+  </si>
+  <si>
+    <t>盒子机器人红（幼年）</t>
+  </si>
+  <si>
+    <t>yijiehezi_hong</t>
+  </si>
+  <si>
+    <t>[[-2,-2,52,]]</t>
+  </si>
+  <si>
+    <t>盒子机器人蓝（幼年）</t>
+  </si>
+  <si>
+    <t>yijiehezi_lan</t>
+  </si>
+  <si>
+    <t>[[-2,-2,53,]]</t>
+  </si>
+  <si>
+    <t>盒子机器人绿（幼年）</t>
+  </si>
+  <si>
+    <t>yijiehezi_lv</t>
+  </si>
+  <si>
+    <t>[[-2,-2,54,]]</t>
+  </si>
+  <si>
+    <t>盒子机器人紫（幼年）</t>
+  </si>
+  <si>
+    <t>yijiehezi_zi</t>
+  </si>
+  <si>
+    <t>[[-2,-2,55,]]</t>
+  </si>
+  <si>
+    <t>盒子机器人橙（成年）</t>
+  </si>
+  <si>
+    <t>erjiehezijiqi_huang</t>
+  </si>
+  <si>
+    <t>[[-2,-2,56,]]</t>
+  </si>
+  <si>
+    <t>盒子机器人蓝（成年）</t>
+  </si>
+  <si>
+    <t>erjiehezijiqi_lan</t>
+  </si>
+  <si>
+    <t>[[-2,-2,57,]]</t>
+  </si>
+  <si>
+    <t>盒子机器人绿（成年）</t>
+  </si>
+  <si>
+    <t>erjiehezijiqi_lv</t>
+  </si>
+  <si>
+    <t>[[-2,-2,58,]]</t>
+  </si>
+  <si>
+    <t>磁铁机器人红（幼年）</t>
+  </si>
+  <si>
+    <t>erjihong</t>
+  </si>
+  <si>
+    <t>[[-2,-2,59,]]</t>
+  </si>
+  <si>
+    <t>磁铁机器人蓝（幼年）</t>
+  </si>
+  <si>
+    <t>erjilan</t>
+  </si>
+  <si>
+    <t>[[-2,-2,60,]]</t>
+  </si>
+  <si>
+    <t>磁铁机器人绿（幼年）</t>
+  </si>
+  <si>
+    <t>erjilv</t>
+  </si>
+  <si>
+    <t>[[-2,-2,61,]]</t>
+  </si>
+  <si>
+    <t>磁铁机器人紫（幼年）</t>
+  </si>
+  <si>
+    <t>erjizi</t>
+  </si>
+  <si>
+    <t>[[-2,-2,62,]]</t>
+  </si>
+  <si>
+    <t>磁铁机器人黄（成年）</t>
+  </si>
+  <si>
+    <t>jiqirenerjihuang</t>
+  </si>
+  <si>
+    <t>[[-2,-2,63,]]</t>
+  </si>
+  <si>
+    <t>磁铁机器人绿（成年）</t>
+  </si>
+  <si>
+    <t>jiqirenerjilv</t>
+  </si>
+  <si>
+    <t>[[-2,-2,64,]]</t>
+  </si>
+  <si>
+    <t>磁铁机器人紫（成年）</t>
+  </si>
+  <si>
+    <t>jiqirenerjizi</t>
+  </si>
+  <si>
+    <t>[[-2,-2,65,]]</t>
+  </si>
+  <si>
+    <t>悬浮机器人红（幼年）</t>
   </si>
   <si>
     <t>jiqiyijiehong</t>
   </si>
   <si>
-    <t>[[0,-47,44,]]</t>
-  </si>
-  <si>
-    <t>机器人A黄</t>
-  </si>
-  <si>
-    <t>jiqiyijiehuang</t>
-  </si>
-  <si>
-    <t>[[0,-49,42,]]</t>
-  </si>
-  <si>
-    <t>机器人A蓝</t>
+    <t>[[-2,-2,66,]]</t>
+  </si>
+  <si>
+    <t>悬浮机器人蓝（幼年）</t>
   </si>
   <si>
     <t>jiqiyijielan</t>
   </si>
   <si>
-    <t>[[-2,-49,48,]]</t>
-  </si>
-  <si>
-    <t>机器人A绿</t>
+    <t>[[-2,-2,67,]]</t>
+  </si>
+  <si>
+    <t>悬浮机器人绿（幼年）</t>
   </si>
   <si>
     <t>jiqiyijielv</t>
   </si>
   <si>
-    <t>[[0,-47,50,]]</t>
-  </si>
-  <si>
-    <t>机器人A紫</t>
+    <t>[[-2,-2,68,]]</t>
+  </si>
+  <si>
+    <t>悬浮机器人紫（幼年）</t>
   </si>
   <si>
     <t>jiqiyijiezi</t>
   </si>
   <si>
-    <t>[[0,-51,49,]]</t>
-  </si>
-  <si>
-    <t>机器人B红</t>
-  </si>
-  <si>
-    <t>erjihong</t>
-  </si>
-  <si>
-    <t>[[-2,-6,53,]]</t>
-  </si>
-  <si>
-    <t>机器人B黄</t>
-  </si>
-  <si>
-    <t>erjihuang</t>
-  </si>
-  <si>
-    <t>[[-3,-6,55,]]</t>
-  </si>
-  <si>
-    <t>机器人B蓝</t>
-  </si>
-  <si>
-    <t>erjilan</t>
-  </si>
-  <si>
-    <t>[[-2,-5,54,]]</t>
-  </si>
-  <si>
-    <t>机器人B绿</t>
-  </si>
-  <si>
-    <t>erjilv</t>
-  </si>
-  <si>
-    <t>[[0,-7,57,]]</t>
-  </si>
-  <si>
-    <t>机器人B紫</t>
-  </si>
-  <si>
-    <t>erjizi</t>
-  </si>
-  <si>
-    <t>[[0,-9,53,]]</t>
-  </si>
-  <si>
-    <t>小鸭幼年绿</t>
-  </si>
-  <si>
-    <t>lvya</t>
-  </si>
-  <si>
-    <t>[[0,-8,69,]]</t>
-  </si>
-  <si>
-    <t>小鸭幼年紫</t>
-  </si>
-  <si>
-    <t>ziya</t>
-  </si>
-  <si>
-    <t>小鸭幼年黄</t>
-  </si>
-  <si>
-    <t>huangya</t>
+    <t>[[-2,-2,69,]]</t>
+  </si>
+  <si>
+    <t>悬浮机器人白（成年）</t>
+  </si>
+  <si>
+    <t>xuanfujiqi-bai</t>
+  </si>
+  <si>
+    <t>[[-2,-2,70,]]</t>
+  </si>
+  <si>
+    <t>悬浮机器人绿（成年）</t>
+  </si>
+  <si>
+    <t>xuanfujiqi-lv</t>
+  </si>
+  <si>
+    <t>[[-2,-2,71,]]</t>
+  </si>
+  <si>
+    <t>悬浮机器人紫（成年）</t>
+  </si>
+  <si>
+    <t>xuanfujiqi-zi</t>
+  </si>
+  <si>
+    <t>[[-2,-2,72,]]</t>
+  </si>
+  <si>
+    <t>老鼠红（幼年）</t>
+  </si>
+  <si>
+    <t>youshenmaohong</t>
+  </si>
+  <si>
+    <t>[[-2,-2,73,]]</t>
+  </si>
+  <si>
+    <t>老鼠蓝（幼年）</t>
+  </si>
+  <si>
+    <t>youshenmaolan</t>
+  </si>
+  <si>
+    <t>[[-2,-2,74,]]</t>
+  </si>
+  <si>
+    <t>老鼠绿（幼年）</t>
+  </si>
+  <si>
+    <t>youshenmaolv</t>
+  </si>
+  <si>
+    <t>[[-2,-2,75,]]</t>
+  </si>
+  <si>
+    <t>老鼠紫（幼年）</t>
+  </si>
+  <si>
+    <t>youshengmaozi</t>
+  </si>
+  <si>
+    <t>[[-2,-2,76,]]</t>
+  </si>
+  <si>
+    <t>老鼠红（成年）</t>
+  </si>
+  <si>
+    <t>erjieshuhong</t>
+  </si>
+  <si>
+    <t>[[-2,-2,77,]]</t>
+  </si>
+  <si>
+    <t>老鼠蓝（成年）</t>
+  </si>
+  <si>
+    <t>erjieshulan</t>
+  </si>
+  <si>
+    <t>[[-2,-2,78,]]</t>
+  </si>
+  <si>
+    <t>老鼠绿（成年）</t>
+  </si>
+  <si>
+    <t>erjieshulv</t>
+  </si>
+  <si>
+    <t>[[-2,-2,79,]]</t>
+  </si>
+  <si>
+    <t>龙红（幼年）</t>
+  </si>
+  <si>
+    <t>yijiexiaolong_hong_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,80,]]</t>
+  </si>
+  <si>
+    <t>龙绿（幼年）</t>
+  </si>
+  <si>
+    <t>yijiexiaolong_lv_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,81,]]</t>
+  </si>
+  <si>
+    <t>龙紫（幼年）</t>
+  </si>
+  <si>
+    <t>yijiexiaolong_zi_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,82,]]</t>
+  </si>
+  <si>
+    <t>龙红（成年）</t>
+  </si>
+  <si>
+    <t>erjiexialong_hong_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,83,]]</t>
+  </si>
+  <si>
+    <t>龙蓝（成年）</t>
+  </si>
+  <si>
+    <t>erjiexialong_lan_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,84,]]</t>
+  </si>
+  <si>
+    <t>龙绿（成年）</t>
+  </si>
+  <si>
+    <t>erjiexialong_lv_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,85,]]</t>
+  </si>
+  <si>
+    <t>小鸭红（幼年）</t>
+  </si>
+  <si>
+    <t>youyahong_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,86,]]</t>
+  </si>
+  <si>
+    <t>小鸭绿（幼年）</t>
+  </si>
+  <si>
+    <t>youyalv_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,87,]]</t>
+  </si>
+  <si>
+    <t>小鸭紫（幼年）</t>
+  </si>
+  <si>
+    <t>youyazi_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,88,]]</t>
+  </si>
+  <si>
+    <t>小鸭黄（成年）</t>
+  </si>
+  <si>
+    <t>huangya_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,89,]]</t>
+  </si>
+  <si>
+    <t>小鸭绿（成年）</t>
+  </si>
+  <si>
+    <t>lvya_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,90,]]</t>
+  </si>
+  <si>
+    <t>小鸭紫（成年）</t>
+  </si>
+  <si>
+    <t>ziya_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,91,]]</t>
+  </si>
+  <si>
+    <t>小猪黑（幼年）</t>
+  </si>
+  <si>
+    <t>xiaozhuhei_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,92,]]</t>
+  </si>
+  <si>
+    <t>小猪红（幼年）</t>
+  </si>
+  <si>
+    <t>xiaozhuhong_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,93,]]</t>
+  </si>
+  <si>
+    <t>小猪蓝（幼年）</t>
+  </si>
+  <si>
+    <t>xiaozhulan_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,94,]]</t>
+  </si>
+  <si>
+    <t>小猪绿（幼年）</t>
+  </si>
+  <si>
+    <t>xiaozhulv_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,95,]]</t>
+  </si>
+  <si>
+    <t>小猪粉（成年）</t>
+  </si>
+  <si>
+    <t>erjiezhu-huang_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,96,]]</t>
+  </si>
+  <si>
+    <t>小猪蓝（成年）</t>
+  </si>
+  <si>
+    <t>erjiezhu-lan_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,97,]]</t>
+  </si>
+  <si>
+    <t>小猪绿（成年）</t>
+  </si>
+  <si>
+    <t>erjiezhu-lv_ske</t>
+  </si>
+  <si>
+    <t>[[-2,-2,98,]]</t>
   </si>
 </sst>
 </file>
@@ -873,12 +1170,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -903,13 +1200,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -917,16 +1207,75 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,64 +1296,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1016,8 +1312,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1031,18 +1336,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1103,7 +1400,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,163 +1568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,6 +1579,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1305,51 +1647,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,10 +1687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1402,143 +1699,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1561,12 +1858,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2006,7 +2297,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2026,7 +2317,7 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="29">
         <v>0.03</v>
       </c>
     </row>
@@ -2046,7 +2337,7 @@
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="29">
         <v>0.25</v>
       </c>
     </row>
@@ -2066,7 +2357,7 @@
       <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -2077,7 +2368,7 @@
       <c r="B5" s="4">
         <v>-180</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2086,7 +2377,7 @@
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -2106,7 +2397,7 @@
       <c r="E6" s="4">
         <v>12</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="29">
         <v>0.1</v>
       </c>
     </row>
@@ -2126,7 +2417,7 @@
       <c r="E7" s="4">
         <v>15</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="29">
         <v>0.05</v>
       </c>
     </row>
@@ -2165,7 +2456,7 @@
       <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2191,7 +2482,7 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2211,7 +2502,7 @@
       <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2231,7 +2522,7 @@
       <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2251,7 +2542,7 @@
       <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2322,7 +2613,7 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2342,7 +2633,7 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2362,7 +2653,7 @@
       <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2382,7 +2673,7 @@
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2421,40 +2712,40 @@
       </c>
     </row>
     <row r="15" spans="7:12">
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="7:12">
-      <c r="G16" s="28"/>
-      <c r="H16" s="29">
+      <c r="G16" s="26"/>
+      <c r="H16" s="27">
         <v>0.4</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="27">
         <v>0.3</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="27">
         <v>0.15</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="27">
         <v>0.1</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="27">
         <v>0.05</v>
       </c>
     </row>
@@ -2490,7 +2781,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2605,14 +2896,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" s="21" customFormat="1" spans="1:5">
-      <c r="A8" s="22">
+    <row r="8" s="19" customFormat="1" spans="1:5">
+      <c r="A8" s="20">
         <v>13</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="4">
@@ -2622,14 +2913,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" s="21" customFormat="1" spans="1:5">
-      <c r="A9" s="22">
+    <row r="9" s="19" customFormat="1" spans="1:5">
+      <c r="A9" s="20">
         <v>14</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="4">
@@ -2639,14 +2930,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" s="21" customFormat="1" spans="1:5">
-      <c r="A10" s="22">
+    <row r="10" s="19" customFormat="1" spans="1:5">
+      <c r="A10" s="20">
         <v>15</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="4">
@@ -2707,14 +2998,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" s="21" customFormat="1" spans="1:5">
-      <c r="A14" s="22">
+    <row r="14" s="19" customFormat="1" spans="1:5">
+      <c r="A14" s="20">
         <v>19</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="4">
@@ -2724,14 +3015,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" s="21" customFormat="1" spans="1:5">
-      <c r="A15" s="22">
+    <row r="15" s="19" customFormat="1" spans="1:5">
+      <c r="A15" s="20">
         <v>20</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="4">
@@ -2741,14 +3032,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" s="21" customFormat="1" spans="1:5">
-      <c r="A16" s="22">
+    <row r="16" s="19" customFormat="1" spans="1:5">
+      <c r="A16" s="20">
         <v>21</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="4">
@@ -2759,138 +3050,138 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="24">
+      <c r="A17" s="22">
         <v>1001</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>-1</v>
       </c>
       <c r="D17" s="4">
         <v>-1</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="24">
+      <c r="A18" s="22">
         <v>1002</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <v>-1</v>
       </c>
       <c r="D18" s="4">
         <v>-1</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>1003</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>-1</v>
       </c>
       <c r="D19" s="4">
         <v>-1</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="24">
+      <c r="A20" s="22">
         <v>1004</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <v>-1</v>
       </c>
       <c r="D20" s="4">
         <v>-1</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>1005</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <v>-1</v>
       </c>
       <c r="D21" s="4">
         <v>-1</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="26">
+      <c r="A22" s="24">
         <v>5001</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
         <v>-1</v>
       </c>
       <c r="D22" s="4">
         <v>-1</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="24">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="26">
+      <c r="A23" s="24">
         <v>5002</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>-1</v>
       </c>
       <c r="D23" s="4">
         <v>-1</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="24">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="26">
+      <c r="A24" s="24">
         <v>5003</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="24">
         <v>-1</v>
       </c>
       <c r="D24" s="4">
         <v>-1</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="24">
         <v>-1</v>
       </c>
     </row>
@@ -2934,7 +3225,7 @@
       <c r="B1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2957,13 +3248,13 @@
       </c>
     </row>
     <row r="2" ht="22.5" spans="1:9">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D2" s="4">
@@ -2975,10 +3266,10 @@
       <c r="F2" s="4">
         <v>0.4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="4">
@@ -2986,13 +3277,13 @@
       </c>
     </row>
     <row r="3" ht="22.5" spans="1:9">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="4">
@@ -3004,7 +3295,7 @@
       <c r="F3" s="4">
         <v>0.4</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I3" s="4">
@@ -3012,13 +3303,13 @@
       </c>
     </row>
     <row r="4" ht="22.5" spans="1:9">
-      <c r="A4" s="20">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="4">
@@ -3030,7 +3321,7 @@
       <c r="F4" s="4">
         <v>0.35</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>97</v>
       </c>
       <c r="I4" s="4">
@@ -3038,13 +3329,13 @@
       </c>
     </row>
     <row r="5" ht="22.5" spans="1:9">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="4">
@@ -3056,7 +3347,7 @@
       <c r="F5" s="4">
         <v>0.35</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>100</v>
       </c>
       <c r="I5" s="4">
@@ -3085,13 +3376,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3151,7 +3442,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3165,28 +3456,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3197,11 +3488,11 @@
       <c r="B2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3219,10 +3510,10 @@
       <c r="F3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3241,7 +3532,7 @@
       <c r="F4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="14"/>
       <c r="H4" t="s">
         <v>120</v>
       </c>
@@ -3261,7 +3552,7 @@
       <c r="F5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="14"/>
       <c r="H5" t="s">
         <v>124</v>
       </c>
@@ -3279,7 +3570,7 @@
       <c r="F6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="12"/>
       <c r="H6" t="s">
         <v>127</v>
       </c>
@@ -3291,7 +3582,7 @@
       <c r="B7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3308,15 +3599,15 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
@@ -3352,7 +3643,7 @@
       <c r="I1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3382,7 +3673,7 @@
       <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3412,7 +3703,7 @@
       <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3442,7 +3733,7 @@
       <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3472,15 +3763,15 @@
       <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4">
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3491,7 +3782,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="4">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>150</v>
@@ -3502,15 +3793,15 @@
       <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="23.25" customHeight="1" spans="1:10">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3521,7 +3812,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="4">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>153</v>
@@ -3532,29 +3823,29 @@
       <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>151</v>
+      <c r="B8" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4">
         <v>50</v>
       </c>
       <c r="F8" s="4">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -3562,29 +3853,29 @@
       <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="23.25" customHeight="1" spans="1:10">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>156</v>
+      <c r="B9" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4">
         <v>50</v>
       </c>
       <c r="F9" s="4">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -3592,29 +3883,29 @@
       <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>159</v>
+      <c r="B10" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4">
         <v>50</v>
       </c>
       <c r="F10" s="4">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -3622,29 +3913,29 @@
       <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>163</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4">
         <v>50</v>
       </c>
       <c r="F11" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -3652,29 +3943,29 @@
       <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>166</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4">
         <v>50</v>
       </c>
       <c r="F12" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
@@ -3682,29 +3973,29 @@
       <c r="I12" s="4">
         <v>1</v>
       </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4">
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>169</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4">
         <v>50</v>
       </c>
       <c r="F13" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
@@ -3712,29 +4003,29 @@
       <c r="I13" s="4">
         <v>1</v>
       </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4">
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>172</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4">
         <v>50</v>
       </c>
       <c r="F14" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
@@ -3742,29 +4033,29 @@
       <c r="I14" s="4">
         <v>1</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4">
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>175</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4">
         <v>50</v>
       </c>
       <c r="F15" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -3772,29 +4063,29 @@
       <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4">
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>178</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4">
         <v>50</v>
       </c>
       <c r="F16" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -3802,29 +4093,29 @@
       <c r="I16" s="4">
         <v>1</v>
       </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="4">
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>181</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4">
         <v>50</v>
       </c>
       <c r="F17" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
@@ -3832,29 +4123,29 @@
       <c r="I17" s="4">
         <v>1</v>
       </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="4">
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>184</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4">
         <v>50</v>
       </c>
       <c r="F18" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -3862,29 +4153,29 @@
       <c r="I18" s="4">
         <v>1</v>
       </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="4">
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>187</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4">
         <v>50</v>
       </c>
       <c r="F19" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
@@ -3892,29 +4183,29 @@
       <c r="I19" s="4">
         <v>1</v>
       </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4">
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>190</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4">
         <v>50</v>
       </c>
       <c r="F20" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
@@ -3922,19 +4213,19 @@
       <c r="I20" s="4">
         <v>1</v>
       </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="4">
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>192</v>
+      <c r="B21" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4">
@@ -3943,190 +4234,1433 @@
       <c r="F21" s="4">
         <v>200</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>194</v>
+      <c r="G21" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="H21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
       </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="4">
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>195</v>
+      <c r="B22" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4">
         <v>50</v>
       </c>
       <c r="F22" s="4">
-        <v>201</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="H22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
       </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="4">
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>197</v>
+      <c r="B23" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4">
         <v>50</v>
       </c>
       <c r="F23" s="4">
+        <v>200</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H23" s="4">
-        <v>2</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="E24" s="4">
+        <v>50</v>
+      </c>
+      <c r="F24" s="4">
+        <v>200</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="E25" s="4">
+        <v>50</v>
+      </c>
+      <c r="F25" s="4">
+        <v>200</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="E26" s="4">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4">
+        <v>200</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="E27" s="4">
+        <v>50</v>
+      </c>
+      <c r="F27" s="4">
+        <v>200</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="E28" s="4">
+        <v>50</v>
+      </c>
+      <c r="F28" s="4">
+        <v>200</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="E29" s="4">
+        <v>50</v>
+      </c>
+      <c r="F29" s="4">
+        <v>200</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="E30" s="4">
+        <v>50</v>
+      </c>
+      <c r="F30" s="4">
+        <v>200</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="E31" s="4">
+        <v>50</v>
+      </c>
+      <c r="F31" s="4">
+        <v>200</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="E32" s="4">
+        <v>50</v>
+      </c>
+      <c r="F32" s="4">
+        <v>200</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="E33" s="4">
+        <v>50</v>
+      </c>
+      <c r="F33" s="4">
+        <v>200</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4">
+        <v>50</v>
+      </c>
+      <c r="F34" s="4">
+        <v>200</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4">
+        <v>50</v>
+      </c>
+      <c r="F35" s="4">
+        <v>200</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4">
+        <v>50</v>
+      </c>
+      <c r="F36" s="4">
+        <v>200</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4">
+        <v>50</v>
+      </c>
+      <c r="F37" s="4">
+        <v>200</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4">
+        <v>50</v>
+      </c>
+      <c r="F38" s="4">
+        <v>200</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4">
+        <v>50</v>
+      </c>
+      <c r="F39" s="4">
+        <v>200</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4">
+        <v>50</v>
+      </c>
+      <c r="F40" s="4">
+        <v>200</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4">
+        <v>50</v>
+      </c>
+      <c r="F41" s="4">
+        <v>200</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4">
+        <v>50</v>
+      </c>
+      <c r="F42" s="4">
+        <v>200</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4">
+        <v>50</v>
+      </c>
+      <c r="F43" s="4">
+        <v>200</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4">
+        <v>50</v>
+      </c>
+      <c r="F44" s="4">
+        <v>200</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4">
+        <v>50</v>
+      </c>
+      <c r="F45" s="4">
+        <v>200</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4">
+        <v>50</v>
+      </c>
+      <c r="F46" s="4">
+        <v>200</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4">
+        <v>50</v>
+      </c>
+      <c r="F47" s="4">
+        <v>200</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4">
+        <v>50</v>
+      </c>
+      <c r="F48" s="4">
+        <v>200</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4">
+        <v>50</v>
+      </c>
+      <c r="F49" s="4">
+        <v>200</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4">
+        <v>50</v>
+      </c>
+      <c r="F50" s="4">
+        <v>200</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4">
+        <v>50</v>
+      </c>
+      <c r="F51" s="4">
+        <v>200</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>286</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4">
+        <v>50</v>
+      </c>
+      <c r="F52" s="4">
+        <v>200</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4">
+        <v>50</v>
+      </c>
+      <c r="F53" s="4">
+        <v>200</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4">
+        <v>50</v>
+      </c>
+      <c r="F54" s="4">
+        <v>200</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4">
+        <v>50</v>
+      </c>
+      <c r="F55" s="4">
+        <v>200</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A56" s="6"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A57" s="6"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A58" s="6"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A59" s="6"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A60" s="6"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A61" s="6"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="6"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="6"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A31">
+  <conditionalFormatting sqref="A1:A87">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/resource/table/游戏配置.xlsx
+++ b/resource/table/游戏配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="12465" activeTab="6"/>
+    <workbookView windowWidth="4275" windowHeight="3930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="转盘配置" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
     <t>[[-1,-3,44,]]</t>
   </si>
   <si>
-    <t>大眼幼年绿</t>
+    <t>大眼绿(幼年)</t>
   </si>
   <si>
     <t>duyanlv</t>
@@ -1170,12 +1170,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1200,15 +1200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,47 +1227,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1296,11 +1256,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1322,13 +1313,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1336,10 +1320,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1400,25 +1400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,13 +1430,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,79 +1544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,19 +1562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1582,47 +1582,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,6 +1615,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1665,17 +1644,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1687,10 +1687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1699,136 +1699,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1920,10 +1920,10 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3602,7 +3602,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
